--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/vscode/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{054A2910-818F-4898-B02B-F6F918147BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFC6A09-5253-B447-81F9-8EDD76668AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="2" r:id="rId1"/>
-    <sheet name="Foglio1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">questions!$A$1:$G$5</definedName>
+    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">questions!$A$1:$G$247</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="654">
   <si>
     <t>id</t>
   </si>
@@ -66,38 +65,1939 @@
     <t>FGM</t>
   </si>
   <si>
-    <t>1. danger - dangerous_x000D_
-2. sing - song</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>textarea</t>
-  </si>
-  <si>
     <t>FGM_Qb</t>
   </si>
   <si>
-    <t>(testo della domanda FGM_Qb)</t>
-  </si>
-  <si>
     <t>FGA_Qa</t>
   </si>
   <si>
     <t>FGA</t>
   </si>
   <si>
-    <t>(testo della domanda FGA_Qa)</t>
-  </si>
-  <si>
     <t>FGK_Qa</t>
   </si>
   <si>
     <t>FGK</t>
   </si>
   <si>
-    <t>(testo della domanda FGK_Qa)</t>
+    <t>FGK_Qb</t>
+  </si>
+  <si>
+    <t>FGK_Qc</t>
+  </si>
+  <si>
+    <t>FGK_SQa</t>
+  </si>
+  <si>
+    <t>SPK_Qa</t>
+  </si>
+  <si>
+    <t>SPK_SQa</t>
+  </si>
+  <si>
+    <t>FGP_Qa</t>
+  </si>
+  <si>
+    <t>FGP_Qb</t>
+  </si>
+  <si>
+    <t>FGP_Qc</t>
+  </si>
+  <si>
+    <t>FGP_Qd</t>
+  </si>
+  <si>
+    <t>FGP_Qe</t>
+  </si>
+  <si>
+    <t>FGP_Qf</t>
+  </si>
+  <si>
+    <t>FGP_Qg</t>
+  </si>
+  <si>
+    <t>FGP_Qh</t>
+  </si>
+  <si>
+    <t>FGP_Qi</t>
+  </si>
+  <si>
+    <t>FGP_Qj</t>
+  </si>
+  <si>
+    <t>FGP_Qk</t>
+  </si>
+  <si>
+    <t>FGP_SQa</t>
+  </si>
+  <si>
+    <t>FSP_Qa</t>
+  </si>
+  <si>
+    <t>FSP_Qb</t>
+  </si>
+  <si>
+    <t>FGN_Qa</t>
+  </si>
+  <si>
+    <t>FGN_Qb</t>
+  </si>
+  <si>
+    <t>FGN_Qc</t>
+  </si>
+  <si>
+    <t>FGN_Qd</t>
+  </si>
+  <si>
+    <t>FGN_SQa</t>
+  </si>
+  <si>
+    <t>SCO_Qa</t>
+  </si>
+  <si>
+    <t>SCO_SQa</t>
+  </si>
+  <si>
+    <t>GDP_Qa</t>
+  </si>
+  <si>
+    <t>GDP_SQa</t>
+  </si>
+  <si>
+    <t>FSN_Qa</t>
+  </si>
+  <si>
+    <t>FSN_Qb</t>
+  </si>
+  <si>
+    <t>FSN_SQa</t>
+  </si>
+  <si>
+    <t>FNN_Qa</t>
+  </si>
+  <si>
+    <t>FNN_Qb</t>
+  </si>
+  <si>
+    <t>FNN_SQa</t>
+  </si>
+  <si>
+    <t>FGT_Qa</t>
+  </si>
+  <si>
+    <t>FGT_SQa</t>
+  </si>
+  <si>
+    <t>FGG_Qa</t>
+  </si>
+  <si>
+    <t>FGG_Qb</t>
+  </si>
+  <si>
+    <t>FGG_SQa</t>
+  </si>
+  <si>
+    <t>FSG_Qa</t>
+  </si>
+  <si>
+    <t>FSG_SQa</t>
+  </si>
+  <si>
+    <t>CGB_Qa</t>
+  </si>
+  <si>
+    <t>CGB_Qb</t>
+  </si>
+  <si>
+    <t>FPC_Qa</t>
+  </si>
+  <si>
+    <t>FPC_SQa</t>
+  </si>
+  <si>
+    <t>DGR_Qa</t>
+  </si>
+  <si>
+    <t>DGR_Qb</t>
+  </si>
+  <si>
+    <t>DGR_Qc</t>
+  </si>
+  <si>
+    <t>DGR_Qd</t>
+  </si>
+  <si>
+    <t>DGR_SQa</t>
+  </si>
+  <si>
+    <t>DGR_SQb</t>
+  </si>
+  <si>
+    <t>DGP_Qa</t>
+  </si>
+  <si>
+    <t>CGR_Qa</t>
+  </si>
+  <si>
+    <t>CGR_Qb</t>
+  </si>
+  <si>
+    <t>CGR_Qc</t>
+  </si>
+  <si>
+    <t>CGR_Qd</t>
+  </si>
+  <si>
+    <t>NWD_Qa</t>
+  </si>
+  <si>
+    <t>NWD_Qb</t>
+  </si>
+  <si>
+    <t>NWD_Qc</t>
+  </si>
+  <si>
+    <t>NWD_Qd</t>
+  </si>
+  <si>
+    <t>NWD_Qe</t>
+  </si>
+  <si>
+    <t>NWD_Qf</t>
+  </si>
+  <si>
+    <t>FVP_Qa</t>
+  </si>
+  <si>
+    <t>FVP_Qb</t>
+  </si>
+  <si>
+    <t>DGD_Qa</t>
+  </si>
+  <si>
+    <t>DGD_SQa</t>
+  </si>
+  <si>
+    <t>DPQ_Qa</t>
+  </si>
+  <si>
+    <t>DPQ_SQa</t>
+  </si>
+  <si>
+    <t>DCN_Qa</t>
+  </si>
+  <si>
+    <t>DCN_Qb</t>
+  </si>
+  <si>
+    <t>DNN_Qa</t>
+  </si>
+  <si>
+    <t>DNN_Qb</t>
+  </si>
+  <si>
+    <t>DNN_Qc</t>
+  </si>
+  <si>
+    <t>DIN_Qa</t>
+  </si>
+  <si>
+    <t>DIN_SQa</t>
+  </si>
+  <si>
+    <t>FGC_Qa</t>
+  </si>
+  <si>
+    <t>FGC_SQa</t>
+  </si>
+  <si>
+    <t>FGE_Qa</t>
+  </si>
+  <si>
+    <t>FGE_SQa</t>
+  </si>
+  <si>
+    <t>FCN_Qa</t>
+  </si>
+  <si>
+    <t>FCN_SQa</t>
+  </si>
+  <si>
+    <t>HMP_Qa</t>
+  </si>
+  <si>
+    <t>HMP_SQa</t>
+  </si>
+  <si>
+    <t>ARR_Qa</t>
+  </si>
+  <si>
+    <t>ARR_Qb</t>
+  </si>
+  <si>
+    <t>ARR_Qc</t>
+  </si>
+  <si>
+    <t>ARR_Qd</t>
+  </si>
+  <si>
+    <t>GCN_Qa</t>
+  </si>
+  <si>
+    <t>GCN_SQa</t>
+  </si>
+  <si>
+    <t>GFN_Qa</t>
+  </si>
+  <si>
+    <t>GFN_SQa</t>
+  </si>
+  <si>
+    <t>GFP_Qa</t>
+  </si>
+  <si>
+    <t>GFP_SQa</t>
+  </si>
+  <si>
+    <t>GP3_Qa</t>
+  </si>
+  <si>
+    <t>GP3_SQa</t>
+  </si>
+  <si>
+    <t>GEI_Qa</t>
+  </si>
+  <si>
+    <t>CSE_Qa</t>
+  </si>
+  <si>
+    <t>EAL_Qa</t>
+  </si>
+  <si>
+    <t>CAL_Qa</t>
+  </si>
+  <si>
+    <t>LKA_Qa</t>
+  </si>
+  <si>
+    <t>LKA_SQa</t>
+  </si>
+  <si>
+    <t>LKO_Qa</t>
+  </si>
+  <si>
+    <t>LKO_SQa</t>
+  </si>
+  <si>
+    <t>LKP_Qa</t>
+  </si>
+  <si>
+    <t>LKP_Qb</t>
+  </si>
+  <si>
+    <t>LKP_SQa</t>
+  </si>
+  <si>
+    <t>DMP_Qa</t>
+  </si>
+  <si>
+    <t>DMG_Qa</t>
+  </si>
+  <si>
+    <t>DMG_Qb</t>
+  </si>
+  <si>
+    <t>GUN_Qa</t>
+  </si>
+  <si>
+    <t>GUN_Qb</t>
+  </si>
+  <si>
+    <t>GUN_Qc</t>
+  </si>
+  <si>
+    <t>GUN_Qd</t>
+  </si>
+  <si>
+    <t>GUN_Qe</t>
+  </si>
+  <si>
+    <t>GUN_SQa</t>
+  </si>
+  <si>
+    <t>GUN_SQb</t>
+  </si>
+  <si>
+    <t>GAD_Qa</t>
+  </si>
+  <si>
+    <t>GFL_Qa</t>
+  </si>
+  <si>
+    <t>GFL_Qb</t>
+  </si>
+  <si>
+    <t>PGL_Qa</t>
+  </si>
+  <si>
+    <t>PGL_Qb</t>
+  </si>
+  <si>
+    <t>SPK</t>
+  </si>
+  <si>
+    <t>FGP</t>
+  </si>
+  <si>
+    <t>FSP</t>
+  </si>
+  <si>
+    <t>FGN</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>FSN</t>
+  </si>
+  <si>
+    <t>FNN</t>
+  </si>
+  <si>
+    <t>FGT</t>
+  </si>
+  <si>
+    <t>FGG</t>
+  </si>
+  <si>
+    <t>FSG</t>
+  </si>
+  <si>
+    <t>CGB</t>
+  </si>
+  <si>
+    <t>FPC</t>
+  </si>
+  <si>
+    <t>DGR</t>
+  </si>
+  <si>
+    <t>DGP</t>
+  </si>
+  <si>
+    <t>CGR</t>
+  </si>
+  <si>
+    <t>NWD</t>
+  </si>
+  <si>
+    <t>FVP</t>
+  </si>
+  <si>
+    <t>DGD</t>
+  </si>
+  <si>
+    <t>DPQ</t>
+  </si>
+  <si>
+    <t>DCN</t>
+  </si>
+  <si>
+    <t>DNN</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>FGC</t>
+  </si>
+  <si>
+    <t>FGE</t>
+  </si>
+  <si>
+    <t>FCN</t>
+  </si>
+  <si>
+    <t>HMP</t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>GCN</t>
+  </si>
+  <si>
+    <t>GFN</t>
+  </si>
+  <si>
+    <t>GFP</t>
+  </si>
+  <si>
+    <t>GP3</t>
+  </si>
+  <si>
+    <t>GEI</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>EAL</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>LKO</t>
+  </si>
+  <si>
+    <t>LKP</t>
+  </si>
+  <si>
+    <t>DMP</t>
+  </si>
+  <si>
+    <t>DMG</t>
+  </si>
+  <si>
+    <t>GUN</t>
+  </si>
+  <si>
+    <t>GAD</t>
+  </si>
+  <si>
+    <t>GFL</t>
+  </si>
+  <si>
+    <t>PGL</t>
+  </si>
+  <si>
+    <t>Does the language have affixes or regular phonological alternations that change the grammatical category of the base?</t>
+  </si>
+  <si>
+    <t>Does the language have roots which take different affixes/phonological alternations encoding different closed-class interpretable/grammatical properties (Tense, Aspect, Number, Gender, Gradation, Case, etc.)?</t>
+  </si>
+  <si>
+    <t>Do you find alternations where a feature occurring on a word takes its value from (“agrees with”, “concords with”) another occurrence of the same feature on another word?</t>
+  </si>
+  <si>
+    <t>Does the morphology of personal or relative pronouns occurring as arguments vary according to their being subjects/agents or objects or oblique complements?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, does the morphology of quantifiers, demonstratives and/or definite/indefinite articles vary according to the argument being a subject/agent or an object or an oblique complement?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, does the morphology of nouns vary according to the argument being a subject/agent or an object or an oblique complement?</t>
+  </si>
+  <si>
+    <t>Are items designating the speaker, the addressee and the non-participants (i.e. 1st, 2nd, and 3rd person pronouns) all invariant with respect to their being subjects/agents or objects or oblique complements?</t>
+  </si>
+  <si>
+    <t>Does the language have morphological Case distinctions expressing spatial relations more complex than stative location, direction, and source (e.g. adessive vs. inessive)?</t>
+  </si>
+  <si>
+    <t>Is at least one of the simple spatial relations (stative location, direction, source) expressed by means of adpositions?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on the verb that depend on the speech role of the subject?</t>
+  </si>
+  <si>
+    <t>Do you find speech-role sensitive clitics that double the subject of the verb?</t>
+  </si>
+  <si>
+    <t>Do you find overt expletive items in subject function?</t>
+  </si>
+  <si>
+    <t>Do you find overt resumptive items in (direct or indirect) object function?</t>
+  </si>
+  <si>
+    <t>Do you find items that can occur as referentially independent pronouns and can also occur as a variable bound by a quantified antecedent like no-one/everyone?</t>
+  </si>
+  <si>
+    <t>Do speech role designating items precede adjectives that are prenominal when a noun is present?</t>
+  </si>
+  <si>
+    <t>Do articleless nominal arguments with a cardinal numeral following a possessive, an adjective meaning 'other', 'same/even' or 'unique', or the noun itself receive definite interpretation?</t>
+  </si>
+  <si>
+    <t>Do you find speech-role designating morphemes alternating between a stressed and a clitic form?</t>
+  </si>
+  <si>
+    <t>Can common nouns occur bare in non-argument function while the same nouns in argument function require the addition of some overt functional category?</t>
+  </si>
+  <si>
+    <t>Can proper names occur bare in non-argument fuction, while the same proper names in subject function require the addition of some overt functional category?</t>
+  </si>
+  <si>
+    <t>Are nominal arguments with understood maximality denotation (definiteness) overtly marked as such (typically by the ‘definite article’ or some other source of definiteness, e.g., demonstratives, genitive/possessive arguments)?</t>
+  </si>
+  <si>
+    <t>Do you find "indicative" (modus realis) clauses where the verb is invariable with respect to Person and the subject is null?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on reflexives depending on the speech-role of their antecedents?</t>
+  </si>
+  <si>
+    <t>Does the language have a system of personal pronouns single-membered per each speech-role, with a dedicated morpheme encoding the non-uniqueness of the referent at least for some speech-roles?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on nominal arguments (on the head noun or a definite article/demonstrative/quantifier/adjective) that oppose singular to non-singular interpretation?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on the verb that depend on the singular/non-singular interpretation of the subject?</t>
+  </si>
+  <si>
+    <t>Within nominal arguments, do you find morphological alternations on adjectives that depend on the singular/non-singular interpretation of the noun (or of the definite article/demonstrative/quantifier)?</t>
+  </si>
+  <si>
+    <t>Do you find, morphological alternations on 3rd person reflexives that depend on the singular/non-singular interpretation of their antecedents?</t>
+  </si>
+  <si>
+    <t>As a general rule, are nominal arguments formally neutral between a singular and a non-singular interpretation?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where the noun bears an optional marker for ‘group reading’ that is doubled on its modifiers?</t>
+  </si>
+  <si>
+    <t>Do nominal modifiers have the same form regardless of whether they occur with nouns bearing group morphology or not?</t>
+  </si>
+  <si>
+    <t>Pick a sentence containing an argument distributed over by anbother quantifying argument. Does the morpheme which function as a marker of the dustrubutive reading occur both on the quantified and on the quantifying nominal?</t>
+  </si>
+  <si>
+    <t>In a sentence where a nominal argument is interpreted as distributed over another argument, does the presence of one group marker suffice to obtain this interpretation?</t>
+  </si>
+  <si>
+    <t>Does the language have nouns that bear variable number morphology?</t>
+  </si>
+  <si>
+    <t>Do you find bare nouns in (at least some) argument function?</t>
+  </si>
+  <si>
+    <t>As a general rule, are nouns formally neutral between a singular/plural interpretation (which may however be expressed by a determiner), regardless of the phonetic environment?</t>
+  </si>
+  <si>
+    <t>Does the language have systematic exponence of number morphology distinguishing singular vs. plural number on nouns, not definable as a lexical/phonological idiosyncrasy?</t>
+  </si>
+  <si>
+    <t>Are there bare nouns in (at least some) argument function?</t>
+  </si>
+  <si>
+    <t>As a general rule, do nouns have the same phonetic form, regardless of their singular/plural interpretation, though number distinctions on nouns may surface in given phonological contexts?</t>
+  </si>
+  <si>
+    <t>Does the language have a dedicated bound morpheme that, when attached to nouns referring to natural kinds (animals, people, plants, …) and material objects, signals that the property they denote is not true at the speech time even when a verb or adjective in the sentence already expresses the state-changing effect (through time) on the denotatum?</t>
+  </si>
+  <si>
+    <t>Do nouns have the same form regardless of whether the property they denote is true or holds at the relevant time?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on articles/demonstratives/quantifiers that are controlled by the gender/noun class of the noun?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on NP-modifying adjectives that are controlled by the gender/noun class of the noun?</t>
+  </si>
+  <si>
+    <t>Do nominal determiners and modifiers (articles/demonstratives/quantifiers/adjectives) have the same form, regardless of any inherent lexical property (e.g. sex, animacy etc.) of the head noun they occur with?</t>
+  </si>
+  <si>
+    <t>Does the language have distinct 3rd person pronominal forms depending on the sex/animacy of the referent?</t>
+  </si>
+  <si>
+    <t>Do 3rd person pronouns have the same form regardless of animacy and/or biological sex of the referent?</t>
+  </si>
+  <si>
+    <t>In a language with grammaticalized Number, do you find bare singular count nouns with an indefinite number-neutral reading occurring in the object position of an atelic predicate?</t>
+  </si>
+  <si>
+    <t>In a language without grammaticalized Number, do bare nouns in subject position have a definite reading, while the indefinite, non presuppositional, non-numeral reading is marked by a dedicated morpheme?</t>
+  </si>
+  <si>
+    <t>Does the language have a functional morpheme (other than demonstratives) that attaches to arguments and encodes the speaker’s perception of the position or movement of a nominal argument’s referent, and whose absence results in an unbounded reading of the nominal?</t>
+  </si>
+  <si>
+    <t>Do nominal arguments with definite/specific/bounded reference have the same form, regardless of the speaker’s perception of the position or movement of the argument’s referent?</t>
+  </si>
+  <si>
+    <t>Does the language have an overt marker found with nominal arguments having a definite interpretation (= with maximal reading) denoting entities introduced in the domain of discourse but not directly mentioned, and this marker is different from those found with arguments having a non-maximal reading?</t>
+  </si>
+  <si>
+    <t>Does the language have an overt marker found with argument common nouns denoting a maximal specific entity considered unique by the speaker and the hearer (hence with definite interpretation), and this marker is different from those found when the entity is not considered unique?</t>
+  </si>
+  <si>
+    <t>Does the language have an overt marker found with nominal arguments headed by a singular count noun and referring to the whole kind named by that noun, and this marker is different from those used with non-maximal (i.e. indefinite) readings?</t>
+  </si>
+  <si>
+    <t>Does the language have an overt marker found with nominal arguments headed by a mass/plural noun and referring to the whole kind named by that noun, and this marker is different from those found with non-maximal (i.e. indefinite) readings?</t>
+  </si>
+  <si>
+    <t>Do you find bare nominal arguments interpreted as definite (= with maximal reading)?</t>
+  </si>
+  <si>
+    <t>Do you find bare nominal arguments headed by a singular/count/plural/mass noun that occurr as the complement of a telic predicate and are interpreted as existential?</t>
+  </si>
+  <si>
+    <t>Does the language have a a marker found with nominal arguments denoting an entity that has been mentioned in the previous context (‘anaphoric reading’), which is not found when definiteness is determined from the pragmatic context?</t>
+  </si>
+  <si>
+    <t>Do you find bare singular count nouns with an indefinite reading in subject position?</t>
+  </si>
+  <si>
+    <t>Do you find bare nominal arguments with a definite Genitive not occurring at their boundary that have a definite reading?</t>
+  </si>
+  <si>
+    <t>Do you find bare nominal arguments containing a demonstrative not occurring at their boundary?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where a definiteness affix is attached to the noun occurring in a non-boundary position and no other overt definite category appears at the boundary?</t>
+  </si>
+  <si>
+    <t>Do you find bare arguments headed by a proper name following an adjective?</t>
+  </si>
+  <si>
+    <t>Do you find bare arguments headed by a plural/mass noun receiving a kind-referring interpretation?</t>
+  </si>
+  <si>
+    <t>Do you find unmodified bare arguments headed by a plural/mass noun occurring in subject position with generic interpretation?</t>
+  </si>
+  <si>
+    <t>Do you find definite specific bare nominal arguments containing a prenominal Genitive non-agreeing in phi-features with the head noun?</t>
+  </si>
+  <si>
+    <t>Does the language have definiteness affixes that occur on non-initial constituents of bare nominal arguments?</t>
+  </si>
+  <si>
+    <t>Do you find possessives occurring without a determiner in argument phrases with no nominal head?</t>
+  </si>
+  <si>
+    <t>Do you find nominal subjects not overtly marked as 1st/2nd person that control 1st/2nd person verb agreement?</t>
+  </si>
+  <si>
+    <t>Do you find nominals in topic position that are not overtly marked as 1st/2nd person but are resumed by a 1st/2nd person pronoun?</t>
+  </si>
+  <si>
+    <t>Does the language have different articles marking a distinction between proximate vs. non-proximate (in time or space), which are different from determiners encoding deictic/discourse-anaphoric features (e.g. demonstratives)?</t>
+  </si>
+  <si>
+    <t>Does the article have the same form, regardless of the distality/proximity of the referent?</t>
+  </si>
+  <si>
+    <t>Do you find Case/adposition alternations with singular count, plural and mass bare nominal arguments such that one such Case/adposition assigns a partitive indefinite meaning?</t>
+  </si>
+  <si>
+    <t>In affirmative sentences, do indefinite arguments headed by a bare plural or mass noun have the same morphological make-up (e.g., are marked by the same Case or adposition) as their definite counterparts?</t>
+  </si>
+  <si>
+    <t>Does the language have a non-phrase-final morpheme that is suffixed to a head noun and functions as the only marker of the definite reading of the nominal phrase?</t>
+  </si>
+  <si>
+    <t>Does the language have a non-phrase-final morpheme that is suffixed to an attributive adjective and functions as the only marker of the definite reading of the nominal phrase?</t>
+  </si>
+  <si>
+    <t>Do articles appear in nominal arguments that contain no overt noun (nor adjective) but contain one of its arguments realized as a non-pronominal Genitive?</t>
+  </si>
+  <si>
+    <t>Do articles appear in nominal arguments that contain no overt noun (nor adjective) but contain an adpositional argument/adjunct?</t>
+  </si>
+  <si>
+    <t>Do articles appear in nominal arguments that contain no overt noun but contain a relative clause?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on the noun (and possibly also on adjectives) depending on the presence/absence of a definite determiner?</t>
+  </si>
+  <si>
+    <t>Do nouns have the same form, regardless of whether they occur with a definite determiner or not?</t>
+  </si>
+  <si>
+    <t>Does the language have lexically selected classifiers encountered when numerals are combined with nouns denoting naturally atomic entities?</t>
+  </si>
+  <si>
+    <t>Is the relation between a cardinal and a noun denoting a naturally atomic entity direct (i.e. not mediated by a dedicated morpheme which can be absent when no cardinal is there)?</t>
+  </si>
+  <si>
+    <t>Do you find postverbal nominals with a 'bare classifier' receiving a definite interpretation?</t>
+  </si>
+  <si>
+    <t>Do you find postverbal bare nominals without an overt classifier receiving a definite specific interpretation?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on predicate nouns that are controlled by the Person feature of their subject?</t>
+  </si>
+  <si>
+    <t>Do predicate nouns have the same form regardless of the Person of their subject?</t>
+  </si>
+  <si>
+    <t>Do you find nominals headed by a nominalized property such as shape, color or provenance and modified by an argument, and the whole nominal denotes the referent of the argument, while the nominalized property is interpreted as an attribute of the argument?</t>
+  </si>
+  <si>
+    <t>Do nominals headed by a nominalized property (such as shape, color or provenance) denote that property and not an individual having that property (whether it is expressed or not)?</t>
+  </si>
+  <si>
+    <t>Does the language allow for free (truth-functionally synonymous/interchangeable) permutations of the order of the same two or more adjectives?</t>
+  </si>
+  <si>
+    <t>In indefinite nominal phrases, do you find adjectives to the left and also to the right of a cardinal numeral?</t>
+  </si>
+  <si>
+    <t>Do you find adjectives to the right of a post-nominal argument of N that can also be found to its left?</t>
+  </si>
+  <si>
+    <t>Do you find argument adjectives in prenominal position, and do you also find postnominal adjectives (of any category)?</t>
+  </si>
+  <si>
+    <t>Do you find any systematic morpho-phonological alternations on head nouns depending on the presence/absence of a non-adpositional genitive argument?</t>
+  </si>
+  <si>
+    <t>As a general rule, do head nouns have the same form regardless of whether they occur with a non-adpositional genitive argument or not?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on nouns modified by a genitive argument that are controlled by the Person feature of the genitive argument?</t>
+  </si>
+  <si>
+    <t>Do head nouns modified by a genitive argument (or a possessive) have the same form regardless of the Person of the genitive/possessive argument?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on nouns modified by a genitive argument depending on whether the genitive argument carries 1st or 2nd person features?</t>
+  </si>
+  <si>
+    <t>Do nouns have the same form regardless of whether they occur with a possessive in the 1st or 2nd Person or without a genitive/possessive argument altogether?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on the noun that are controlled by the Person of its genitive/possessive argument?</t>
+  </si>
+  <si>
+    <t>Do nouns have the same form regardless of whether they occur with a Genitive/possessive argument or not?</t>
+  </si>
+  <si>
+    <t>Do you find pre- or post-nominal genitive/possessive arguments of the noun, and the noun agrees in Person with them?</t>
+  </si>
+  <si>
+    <t>Do you find nouns constructed with two arguments (realized as possessive, non-pronominal Genitive or PP/oblique, whether or not independently licensed by a linker), neither of them in an extraposed position?</t>
+  </si>
+  <si>
+    <t>Do you find nouns with an internal argument that bears the same case morphology (e.g. absolutive) as the internal argument of a verb?</t>
+  </si>
+  <si>
+    <t>Do you find nouns with an internal and an external argument, where the internal argument bears the same case morphology (e.g. accusative) as the internal argument of a transitive verb, and this case morphology is different from that found on the external argument?</t>
+  </si>
+  <si>
+    <t>Does the language have a morpheme that introduces arguments of head nouns, that is the same as the one used to introduce other modifiers and is distinct from Case marking, articles, and from adpositions introducing arguments of the verb?</t>
+  </si>
+  <si>
+    <t>Are arguments of the noun merged directly, or by means of adpositions and Case marking that can be found also with argument of verbs?</t>
+  </si>
+  <si>
+    <t>Does the language have a morpheme that introduces oblique arguments of the noun, and is distinct from Case marking, articles, and from adpositions introducing arguments of the verb?</t>
+  </si>
+  <si>
+    <t>Are oblique arguments of the noun merged directly, or by means of adpositions and Case marking that can be found also with argument of verbs?</t>
+  </si>
+  <si>
+    <t>Does the language have a morpheme that introduces adnominal adjectives and is different from articles?</t>
+  </si>
+  <si>
+    <t>Does the language have a morpheme introducing relative clauses that is distinct from articles, wh-fronted elements and any complementizer introducing other subordinate clauses?</t>
+  </si>
+  <si>
+    <t>Are adnominal adjectives and relative clauses merged directly?</t>
+  </si>
+  <si>
+    <t>Do you find nouns or adjectives bearing a definiteness suffix that are immediately followed by a possessive?</t>
+  </si>
+  <si>
+    <t>Do you find nouns or adjectives bearing a definiteness suffix that are immediately followed by a full genitive phrase whose determiner position hosts a Genitive-marked element (i.e., either an overt determiner or a proper name in determiner position)?</t>
+  </si>
+  <si>
+    <t>Does the language have a morpheme with the same phi-feature morphology as a definite article (though not necessarily semantically definite) that introduces genitive phrases that have a filled determiner position (i.e., either a nominal with an overt determiner or a proper name in determiner position)?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where a non-adpositional prenominal Genitive is in turn preceded by an adjective, and this Genitive has the same type of morphological realization as postnominal Genitives?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where two non-adpositonal Genitives appear on one side of the noun, and these Genitives have the same type of morphological realization as Genitives found on the other side of the noun?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where two non-adpositional Genitives follow a postnominal adjective?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where two non-adpositional Genitives precede a prenominal adjective (or adjectives)?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments containing three non-adpositional Genitives?</t>
+  </si>
+  <si>
+    <t>Does the language have adpositional genitive arguments of the noun?</t>
+  </si>
+  <si>
+    <t>Does the language have different formal realizations for the same genitive arguments of the noun?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where an adjective precedes a non-adpositional Genitive functioning as an argument or alienable possessor of the noun, whether or not the noun intervenes?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where a non-adpositional Genitive functioning as an argument or alienable possessor of the noun follows the noun?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where an adjective precedes a non-adpositional Genitive, whether or not the noun intervenes, and the relation between the head noun and the Genitive is any of: kinship/part-whole/container-containee/inalienable possession?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where a non-adpositional Genitive follows the noun, and the relation between the head noun and the Genitive is any of: kinship/part-whole/container-containee/inalienable possession?</t>
+  </si>
+  <si>
+    <t>Is there derivational morphology?</t>
+  </si>
+  <si>
+    <t>Is there inflectional morphology?</t>
+  </si>
+  <si>
+    <t>Do not use an 'existential' construction (e.g. 'There is a dog in the garden') to answer this question.</t>
+  </si>
+  <si>
+    <t>When answering this question, try various types of proper names (e.g. person, city, state, team, ...). Do not use vocatives to answer this question.</t>
+  </si>
+  <si>
+    <t>Do not use personal pronouns to answer this question.</t>
+  </si>
+  <si>
+    <t>To answer this question, look for 3rd person alternations, like He/She/It in English.</t>
+  </si>
+  <si>
+    <t>Check whether there are common nouns with contextually unique denotation used articleless.</t>
+  </si>
+  <si>
+    <t>Demonstratives in sequences like [ALL DEM ...] are not to be considered 'non-initial'.</t>
+  </si>
+  <si>
+    <t>To answer this question, test an argument position where bare nouns are possible in the language. Test this question with predicates that cannot apply to single individual instances of the referent of the noun. Do not use coordinated nouns to answer this question.</t>
+  </si>
+  <si>
+    <t>Do not use coordinated nouns to answer this question.</t>
+  </si>
+  <si>
+    <t>Do not use a kinship noun in the singular to answer this question.</t>
+  </si>
+  <si>
+    <t>Pick five different cardinals to test this question.</t>
+  </si>
+  <si>
+    <t>Please provide two examples which show that the form of the noun changes according to whether it is modified by a Genitive or not.</t>
+  </si>
+  <si>
+    <t>Please provide two examples which show that the form of the noun changes according to whether it is modified by a 3rd person Genitive or not.</t>
+  </si>
+  <si>
+    <t>To answer this question, test several of the six orders of: 'A nice red German car'.</t>
+  </si>
+  <si>
+    <t>In some phrases the same Genitive may also occur once more between the adjective(s) and the noun.</t>
+  </si>
+  <si>
+    <t>Do not use a pronominal possessive to answer this question.</t>
+  </si>
+  <si>
+    <t>Do not use nominals with 'home' as a head noun to answer this question.</t>
+  </si>
+  <si>
+    <t>GGH_Qa</t>
+  </si>
+  <si>
+    <t>GGH_SQa</t>
+  </si>
+  <si>
+    <t>GGH_SQb</t>
+  </si>
+  <si>
+    <t>GGH_SQc</t>
+  </si>
+  <si>
+    <t>GSI_Qa</t>
+  </si>
+  <si>
+    <t>GSI_SQa</t>
+  </si>
+  <si>
+    <t>ALP_Qa</t>
+  </si>
+  <si>
+    <t>ALP_SQa</t>
+  </si>
+  <si>
+    <t>GIT_Qa</t>
+  </si>
+  <si>
+    <t>GIT_SQa</t>
+  </si>
+  <si>
+    <t>UST_Qa</t>
+  </si>
+  <si>
+    <t>GPC_Qa</t>
+  </si>
+  <si>
+    <t>GPC_SQa</t>
+  </si>
+  <si>
+    <t>GPC_SQb</t>
+  </si>
+  <si>
+    <t>PSC_Qa</t>
+  </si>
+  <si>
+    <t>PSC_SQa</t>
+  </si>
+  <si>
+    <t>PCA_Qa</t>
+  </si>
+  <si>
+    <t>PCA_Qb</t>
+  </si>
+  <si>
+    <t>PCA_SQa</t>
+  </si>
+  <si>
+    <t>PMN_Qa</t>
+  </si>
+  <si>
+    <t>PMN_SQa</t>
+  </si>
+  <si>
+    <t>RHM_Qa</t>
+  </si>
+  <si>
+    <t>RHM_SQa</t>
+  </si>
+  <si>
+    <t>FRC_Qa</t>
+  </si>
+  <si>
+    <t>NRC_Qa</t>
+  </si>
+  <si>
+    <t>NRC_Qb</t>
+  </si>
+  <si>
+    <t>DOR_Qa</t>
+  </si>
+  <si>
+    <t>DOR_SQa</t>
+  </si>
+  <si>
+    <t>FFP_Qa</t>
+  </si>
+  <si>
+    <t>FFP_SQa</t>
+  </si>
+  <si>
+    <t>NUP_Qa</t>
+  </si>
+  <si>
+    <t>NUP_SQa</t>
+  </si>
+  <si>
+    <t>PNP_Qa</t>
+  </si>
+  <si>
+    <t>PNP_Qb</t>
+  </si>
+  <si>
+    <t>PNP_Qc</t>
+  </si>
+  <si>
+    <t>PNP_Qd</t>
+  </si>
+  <si>
+    <t>PNP_SQa</t>
+  </si>
+  <si>
+    <t>PNP_SQb</t>
+  </si>
+  <si>
+    <t>NUD_Qa</t>
+  </si>
+  <si>
+    <t>NUD_Qb</t>
+  </si>
+  <si>
+    <t>NUD_SQa</t>
+  </si>
+  <si>
+    <t>NUC_Qa</t>
+  </si>
+  <si>
+    <t>NUC_SQa</t>
+  </si>
+  <si>
+    <t>NM1_Qa</t>
+  </si>
+  <si>
+    <t>NM1_Qb</t>
+  </si>
+  <si>
+    <t>NM1_Qc</t>
+  </si>
+  <si>
+    <t>EAF_Qa</t>
+  </si>
+  <si>
+    <t>NM2_Qa</t>
+  </si>
+  <si>
+    <t>NUA_Qa</t>
+  </si>
+  <si>
+    <t>NGL_Qa</t>
+  </si>
+  <si>
+    <t>ACM_Qa</t>
+  </si>
+  <si>
+    <t>ACM_Qb</t>
+  </si>
+  <si>
+    <t>DSN_Qa</t>
+  </si>
+  <si>
+    <t>DSN_Qb</t>
+  </si>
+  <si>
+    <t>DSA_Qa</t>
+  </si>
+  <si>
+    <t>DSA_SQa</t>
+  </si>
+  <si>
+    <t>DSS_Qa</t>
+  </si>
+  <si>
+    <t>DSS_SQa</t>
+  </si>
+  <si>
+    <t>DOC_Qa</t>
+  </si>
+  <si>
+    <t>NEX_Qa</t>
+  </si>
+  <si>
+    <t>NEX_SQa</t>
+  </si>
+  <si>
+    <t>PEX_Qa</t>
+  </si>
+  <si>
+    <t>PEX_SQa</t>
+  </si>
+  <si>
+    <t>FEX_Qa</t>
+  </si>
+  <si>
+    <t>FEX_SQa</t>
+  </si>
+  <si>
+    <t>PDC_Qa</t>
+  </si>
+  <si>
+    <t>PDC_Qb</t>
+  </si>
+  <si>
+    <t>PDC_Qc</t>
+  </si>
+  <si>
+    <t>PDC_SQa</t>
+  </si>
+  <si>
+    <t>PCL_Qa</t>
+  </si>
+  <si>
+    <t>PCL_Qb</t>
+  </si>
+  <si>
+    <t>APO_Qa</t>
+  </si>
+  <si>
+    <t>APO_Qb</t>
+  </si>
+  <si>
+    <t>WAP_Qa</t>
+  </si>
+  <si>
+    <t>WAP_SQa</t>
+  </si>
+  <si>
+    <t>AGE_Qa</t>
+  </si>
+  <si>
+    <t>AGE_Qb</t>
+  </si>
+  <si>
+    <t>OPK_Qa</t>
+  </si>
+  <si>
+    <t>TSP_Qa</t>
+  </si>
+  <si>
+    <t>TSP_Qb</t>
+  </si>
+  <si>
+    <t>TSP_Qc</t>
+  </si>
+  <si>
+    <t>TSP_SQa</t>
+  </si>
+  <si>
+    <t>TSP_SQb</t>
+  </si>
+  <si>
+    <t>TDP_Qa</t>
+  </si>
+  <si>
+    <t>TDP_SQa</t>
+  </si>
+  <si>
+    <t>TDC_Qa</t>
+  </si>
+  <si>
+    <t>TDC_SQa</t>
+  </si>
+  <si>
+    <t>TSA_Qa</t>
+  </si>
+  <si>
+    <t>TSA_Qb</t>
+  </si>
+  <si>
+    <t>TSA_Qc</t>
+  </si>
+  <si>
+    <t>TAR_Qa</t>
+  </si>
+  <si>
+    <t>TAR_Qa2</t>
+  </si>
+  <si>
+    <t>TAR_Qa3</t>
+  </si>
+  <si>
+    <t>TAR_Qa4</t>
+  </si>
+  <si>
+    <t>TAR_Qa5</t>
+  </si>
+  <si>
+    <t>TAR_Qa6</t>
+  </si>
+  <si>
+    <t>TAR_Qb</t>
+  </si>
+  <si>
+    <t>TLC_Qa</t>
+  </si>
+  <si>
+    <t>TND_Qa</t>
+  </si>
+  <si>
+    <t>TDA_Qa</t>
+  </si>
+  <si>
+    <t>TDA_SQa</t>
+  </si>
+  <si>
+    <t>TNL_Qa</t>
+  </si>
+  <si>
+    <t>FBN_Qa</t>
+  </si>
+  <si>
+    <t>FVN_Qa</t>
+  </si>
+  <si>
+    <t>FVN_Qb</t>
+  </si>
+  <si>
+    <t>FPO_Qa</t>
+  </si>
+  <si>
+    <t>PPK_Qa</t>
+  </si>
+  <si>
+    <t>POK_Qa</t>
+  </si>
+  <si>
+    <t>TPP_Qa</t>
+  </si>
+  <si>
+    <t>LPO_Qa</t>
+  </si>
+  <si>
+    <t>PGE_Qa</t>
+  </si>
+  <si>
+    <t>DPP_Qa</t>
+  </si>
+  <si>
+    <t>GMD_Qa</t>
+  </si>
+  <si>
+    <t>GMC_Qa</t>
+  </si>
+  <si>
+    <t>CEX_Qa</t>
+  </si>
+  <si>
+    <t>CEX_Qb</t>
+  </si>
+  <si>
+    <t>CEX_Qc</t>
+  </si>
+  <si>
+    <t>PKE_Qa</t>
+  </si>
+  <si>
+    <t>PKP_Qa</t>
+  </si>
+  <si>
+    <t>GGH</t>
+  </si>
+  <si>
+    <t>GSI</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>UST</t>
+  </si>
+  <si>
+    <t>GPC</t>
+  </si>
+  <si>
+    <t>PSC</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>PMN</t>
+  </si>
+  <si>
+    <t>RHM</t>
+  </si>
+  <si>
+    <t>FRC</t>
+  </si>
+  <si>
+    <t>NRC</t>
+  </si>
+  <si>
+    <t>DOR</t>
+  </si>
+  <si>
+    <t>FFP</t>
+  </si>
+  <si>
+    <t>NUP</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>NUD</t>
+  </si>
+  <si>
+    <t>NUC</t>
+  </si>
+  <si>
+    <t>NM1</t>
+  </si>
+  <si>
+    <t>EAF</t>
+  </si>
+  <si>
+    <t>NM2</t>
+  </si>
+  <si>
+    <t>NUA</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>DSN</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>DSS</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>NEX</t>
+  </si>
+  <si>
+    <t>PEX</t>
+  </si>
+  <si>
+    <t>FEX</t>
+  </si>
+  <si>
+    <t>PDC</t>
+  </si>
+  <si>
+    <t>PCL</t>
+  </si>
+  <si>
+    <t>APO</t>
+  </si>
+  <si>
+    <t>WAP</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>OPK</t>
+  </si>
+  <si>
+    <t>TSP</t>
+  </si>
+  <si>
+    <t>TDP</t>
+  </si>
+  <si>
+    <t>TDC</t>
+  </si>
+  <si>
+    <t>TSA</t>
+  </si>
+  <si>
+    <t>TAR</t>
+  </si>
+  <si>
+    <t>TLC</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>TDA</t>
+  </si>
+  <si>
+    <t>TNL</t>
+  </si>
+  <si>
+    <t>FBN</t>
+  </si>
+  <si>
+    <t>FVN</t>
+  </si>
+  <si>
+    <t>FPO</t>
+  </si>
+  <si>
+    <t>PPK</t>
+  </si>
+  <si>
+    <t>POK</t>
+  </si>
+  <si>
+    <t>TPP</t>
+  </si>
+  <si>
+    <t>LPO</t>
+  </si>
+  <si>
+    <t>PGE</t>
+  </si>
+  <si>
+    <t>DPP</t>
+  </si>
+  <si>
+    <t>GMD</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>CEX</t>
+  </si>
+  <si>
+    <t>PKE</t>
+  </si>
+  <si>
+    <t>PKP</t>
+  </si>
+  <si>
+    <t>The answer is YES if indefiniteness is marked zero in the language and the relative clause is introduced by no complementizer.</t>
+  </si>
+  <si>
+    <t>To test this question, use nouns like 'present', 'gift', 'letter', 'photo', 'trip'.</t>
+  </si>
+  <si>
+    <t>If the cardinal is a numeral noun heading the construction, as in 'a dozen of N', it does not count as a cardinal adjective.</t>
+  </si>
+  <si>
+    <t>If the cardinal is a numeral noun heading the construction, as in 'a dozen of N', it does not count as a cardinal adjective. To test this question, do not use the cardinal for 'one'.</t>
+  </si>
+  <si>
+    <t>Test this question with more than one different adjective and with more than one diferent head noun.</t>
+  </si>
+  <si>
+    <t>Test this question with 1st/2nd/3rd person singular possessives.</t>
+  </si>
+  <si>
+    <t>Do not use the following adjectives to test this question: 'other', 'only', 'big'.</t>
+  </si>
+  <si>
+    <t>To answer this question, use/adapt the evidence collected to answer the questions of parameter ARR.</t>
+  </si>
+  <si>
+    <t>If the language has multiple positions for adjectival modifiers, test this question with all possible positions, and answer YES only if a definite article is replicated in all positions.</t>
+  </si>
+  <si>
+    <t>Do not use 'casa' (HOME) or kinship nouns to answer this question.</t>
+  </si>
+  <si>
+    <t>Do not use (articleless) kinship expressions to answer this question.</t>
+  </si>
+  <si>
+    <t>Test this question with argument adjectives from personal proper names and common nouns</t>
+  </si>
+  <si>
+    <t>This question does not apply to kinship nouns like 'mum' or 'dad'.</t>
+  </si>
+  <si>
+    <t>Do not use noun phrases modified by a relative clause to test this question.</t>
+  </si>
+  <si>
+    <t>Provide at least two examples where demonstratives encode two different deictic meanings.</t>
+  </si>
+  <si>
+    <t>This question does not apply to split Dems.</t>
+  </si>
+  <si>
+    <t>In languages with split demonstratives, this question applies to the reinforcer (or to the copy of the demonstrative) co-occurring with the demonstrative; in these cases, co-occurrence with articles is not expected. Languages where the reinforcer (or the copy of Dem) occurs at the left boundary of the whole nominal phrase ([Reinforcer/Copy of Dem (Dem) …N…. (Dem)]) answer YES.</t>
+  </si>
+  <si>
+    <t>Check this question only with 1st, 2nd, 3rd person singular possessives: if one of such items has two different forms for singular/plural and/or masculine/feminine, the answer is YES. If no such items dislays alternations beween singular/plural interpretation or masculine/feminine, the answer is NO.</t>
+  </si>
+  <si>
+    <t>Can a sentence like 'I must meet the wife/sister/brother/husband/cousin at the airport' have the meaning 'I must meet my wife/sister/cousin at the airport'? Do not use kinship nouns normally used as vocatives (and substitutes of proper names), such as 'mum' or 'dad' to answer this question.</t>
+  </si>
+  <si>
+    <t>To answer this question, please provide at least two examples with two different demonstratives encoding two distinct deictic meanings.</t>
+  </si>
+  <si>
+    <t>If the question tests positive, also try higher numerals, such as 'four', etc.</t>
+  </si>
+  <si>
+    <t>1. danger - dangerous2. sing - song</t>
+  </si>
+  <si>
+    <t>To test this question, you must provide two examples, one with an adjective occurring to the left of a noun and the other with the same adjective occurring to the right of a personal pronoun. Please, make sure that the adjective you choose can/must occur in prenominal position. If the language does not have obligatorily prenominal adjectives but has prenominal numerals, this question can be tested with a numeral:1. Three scholars participated in the project2. We three are married</t>
+  </si>
+  <si>
+    <t>This question does not apply to: 1. bare nouns modified by an adjective; 2. number-neutral nouns occurring as the complement of atelic verbs; 3. coordinated nouns</t>
+  </si>
+  <si>
+    <t>1. Check whether the language has Genitives not occurring at the boundary of the nominal structure; 2. Check whether the language has bare nominal arguments when the noun is modified by a Genitive not occurring at the boundary of the nominal structure; 3. Can the latter have a definite interpretation?</t>
+  </si>
+  <si>
+    <t>To answer this question, test the following opposition: 1. I saw an ugly dog 2. I saw an ugly face If a morpheme agreeing with the arbitrary possessor appears in 2 (and not in 1), the answer is YES.</t>
+  </si>
+  <si>
+    <t>To test this question, you must provide two examples: one with a head noun modified by a postnominal adjective and one with a postnominal possessive occurring in the same position as the adjective). If the language has linkers (or articles) introducing postnominal adjectives, the answer is YES if possessives are introduced by the same linkers/articles introducing adjectives).</t>
+  </si>
+  <si>
+    <t>To test this question, you must provide two examples: one with a head noun modified by a prenominal adjective and one with a prenominal possessive occurring in the same position as the adjective). If the language has linkers introducing prenominal adjectives, the answer is YES if possessives are introduced by the same linkers introducing adjectives). Test this question with 1st/2nd/3rd person singular possessives.</t>
+  </si>
+  <si>
+    <t>Provide an example of a demonstrative used as deictically-neutral and at least two examples where demonstratives encode two different deictic meanings. Do not use noun phrases modified by a relative clause to answer this question.</t>
+  </si>
+  <si>
+    <t>The two separate words usually are one a copy of the other, and the one at the boundary is usually phonologically reduced. Provide at least two examples where demonstratives encode two different deictic meanings.</t>
+  </si>
+  <si>
+    <t>This question does not apply to split Dems. Do not test this question with a nominal structure modified by a non-adpositional Genitive triggering definiteness inheritance.</t>
+  </si>
+  <si>
+    <t>1. Test this question at least with 1st and 2nd person singular possessives, e.g. Italian 'mio fratello', 'tuo cugino'; 2. provide the following DPs: a. 'il mio/tuo libro', b. 'la mia/tua macchina', c. 'mio/tuo fratello', d. 'mia/tua sorella'; 3. the answer is YES if the form of the possessive is invariable in c./d. and different from a./b.</t>
+  </si>
+  <si>
+    <t>1. Test this question with 3d person singular possessives, e.g. Italian 'suo fratello', 'sua cugina'; 2. provide the following DPs: a. 'il suo libro', b. 'la sua macchina', c. 'suo fratello', d. 'sua sorella'; 3. the answer is YES if the form of the possessive is invariable in c./d. and different from a./b.</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where a Genitive realized as a visibly branching phrase headed by a common noun precedes a prenominal adjective?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments containing two or more Genitives functioning as non-internal arguments (e.g., Possessor and Agent or two Possessors) of the noun?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where the noun has an unaffected internal argument realized as a passivized Genitive (i.e., it has the morphosyntactic properties characterizing Genitives functioning as the external argument of a transitive noun where the internal argument is also expressed: John's knowledge of algebra)?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where the noun has an internal argument realized as a passivized Genitive and an understood agent argument which controls the understood subject of an infinitival subordinate?</t>
+  </si>
+  <si>
+    <t>Does the language have a morpheme that is attached to inalienably possessed nouns and agrees with the possessor, even when the possessor is unexpressed and/or non-referential/arbitrary?</t>
+  </si>
+  <si>
+    <t>Do inalienably possessed nouns without an expressed possessor have the same morphological make-up as alienable or non-possessed nouns, at least when the understood possessor is non-referential/arbitrary?</t>
+  </si>
+  <si>
+    <t>Does the language have a morpheme that is attached to possessed nouns to indicate that the object denoted by the noun is alienable from the possessor?</t>
+  </si>
+  <si>
+    <t>Do nouns have the same morphological make-up, regardless of thether they are inalienably possessed, alienably possessed or non-possessed?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments containing two non-adpositional Genitives, where the element that license the first one (the head noun or a nominal proform) is repeated to license the second one?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where two non-adpositional Genitives modify the same, non-iterated (whether in itself or through a nominal proform), head noun?</t>
+  </si>
+  <si>
+    <t>Does the language allow for freely ordered (truth-functionally synonymous/interchangeable) sequences of adjectives between an indefinite numeral and the head noun?</t>
+  </si>
+  <si>
+    <t>As a general rule, do cardinal expressions that inflect for Gender take a value that is the opposite of the noun’s (‘gender mismatch’)?</t>
+  </si>
+  <si>
+    <t>As a general rule, do cardinal expressions that inflect for Gender take a value that is the same as the noun's ('gender agreement')?</t>
+  </si>
+  <si>
+    <t>Do cardinal expressions have the same form regardless of the Gender of the noun they occur with?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where a non-compound cardinal numeral higher than ‘two’ functions as an indefinite quantifier and the noun bears plural marking?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where a non-compound cardinal numeral higher than ‘two’ functions as an indefinite quantifier, and the noun is singular?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where a definite determiner cooccurs with a non-compound cardinal numeral higher than ‘two’, and the noun bears overt plural marking?</t>
+  </si>
+  <si>
+    <t>Do you find alternations in the interpretation of nominal arguments modified by a non-compound cardinal numeral higher than ‘two’ depending on the number marking on the noun: overt plural marking results in definite interpretation, while absence of plural morphology results in indefinite interpretation?</t>
+  </si>
+  <si>
+    <t>Do you find nominal arguments where a definite determiner cooccurs with a non-compound cardinal numeral higher than ‘two’ and the noun is singular?</t>
+  </si>
+  <si>
+    <t>Does the language have a morpheme that, when attached to cardinal numerals, forms "personal" numerals ('we three')?</t>
+  </si>
+  <si>
+    <t>Do cardinal numerals have the same morphological form regardless of whether they denote 1st, 2nd, or 3rd Person referents?</t>
+  </si>
+  <si>
+    <t>Does the language have a person agreement affix that is attached to the head noun modified by a relative clause and is controlled by an argument within the relative clause?</t>
+  </si>
+  <si>
+    <t>Do nouns have the same morphological make-up, whether or not they are modified by a relative clause?</t>
+  </si>
+  <si>
+    <t>Do you find relative clauses whose predicate bears morphology specific to finite verb forms and the subject has the same Case as in simple clauses?</t>
+  </si>
+  <si>
+    <t>Do you find relative clauses constructed with a participle (rather than an inflected verb) and an overt subject which is not the head of the relative?</t>
+  </si>
+  <si>
+    <t>Do you find relative clauses constructed with an overt transitive subject (other than the head of the relative) which is assigned an exclusively adnominal Case (typically Genitive)?</t>
+  </si>
+  <si>
+    <t>Does the language have elements introducing relative clauses that agree in definiteness with the head of the relative?</t>
+  </si>
+  <si>
+    <t>Do relative pronouns/complementizers have the same form regardless of the (in)definiteness of their antecedent (the head of the relative)?</t>
+  </si>
+  <si>
+    <t>Do you find morphological alternations on particles introducing arguments of a head noun (genitive adpositions or linkers) that are controlled by phi-fetures (at least Number) of the noun?</t>
+  </si>
+  <si>
+    <t>Do particles introducing arguments of a head noun (Genitive adpositions or linkers) have the same morphological make-up regardless of the Gender/Number of the head noun?</t>
+  </si>
+  <si>
+    <t>As a general rule, do non-genitive arguments precede their head N?</t>
+  </si>
+  <si>
+    <t>As a general rule, do non-genitive arguments follow their head N?</t>
+  </si>
+  <si>
+    <t>As a general rule, does an adposition precede its complement?</t>
+  </si>
+  <si>
+    <t>As a general rule, do adpositional genitive arguments follow their head noun?</t>
+  </si>
+  <si>
+    <t>As a general rule, in linker phrases, does a linker precede its complement?</t>
+  </si>
+  <si>
+    <t>As a general rule, do linker phrases follow their head noun?</t>
+  </si>
+  <si>
+    <t>As a general rule, does an adposition follow its complement?</t>
+  </si>
+  <si>
+    <t>As a general rule, do adpositional Genitive arguments precede their head N?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, does the article occur as the first word (except for ‘all’ and demonstratives) or affixed to the first word, and is followed by some other overt element belonging to the nominal phrase?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, do you find positional alternations affecting cardinal or numerical adjectives (‘one’,’’two’,...., ‘many’, ‘few’…)? Do they occur after a Genitive/possessive if the nominal phrase has a definite reading, and as the first word if it has an indefinite reading?</t>
+  </si>
+  <si>
+    <t>In nominal aarguments, does the article occur as the last word (except for 'all' and demonstratives) or affixed to the last word, and is preceded by some other overt element belonging to the nominal phrase?</t>
+  </si>
+  <si>
+    <t>In definite nominal arguments, do you find cardinal adjectives preceding the noun?</t>
+  </si>
+  <si>
+    <t>In definite nominal arguments, do you find cardinal adjectives following the noun?</t>
+  </si>
+  <si>
+    <t>In discourse neutral contexts (and without lexical restrictions), do you find quality/size adjectives that, as a general rule, precede the noun?</t>
+  </si>
+  <si>
+    <t>In discourse neutral contexts, in nominal arguments with a visible definite article, do you find possessives that precede the noun and follow a cardinal numeral?</t>
+  </si>
+  <si>
+    <t>In discourse neutral contexts, do you find two or more adjectives preceding the noun?</t>
+  </si>
+  <si>
+    <t>Do you find lexically selected adjectives (e.g., with the meaning former, present/current, fake, alleged, supposed, amusing/funny, little, additional, strange, old, new) exceptionally preceding the noun while the same adjectives normally follow it?</t>
+  </si>
+  <si>
+    <t>In discourse neutral contexts, do you find shape/color adjectives preceding the noun?</t>
+  </si>
+  <si>
+    <t>In discourse neutral contexts, do you find adjectives of origin/nationality preceding the noun?</t>
+  </si>
+  <si>
+    <t>In discourse neutral contexts, do you find non-adpositional Genitives occurring between a structured adjective and a noun?</t>
+  </si>
+  <si>
+    <t>In discourse-neutral contexts, do you find postnominal adjectives denoting an established entity occurring between a head noun and a non-adpositional Genitive?</t>
+  </si>
+  <si>
+    <t>Do you find interpretive alternations affecting adjectives that denote an established natural kind if postnominal and are regular quantifying adjectives if prenominal?</t>
+  </si>
+  <si>
+    <t>Do you find a definiteness suffix on the noun even when a non-suffixal article also occurs?</t>
+  </si>
+  <si>
+    <t>Do you find a definiteness suffix on the noun even when a demonstrative occurs at the boundary?</t>
+  </si>
+  <si>
+    <t>Does the language have a definiteness suffix on the noun that is absent when a non-suffixal article occurs?</t>
+  </si>
+  <si>
+    <t>Does the language have a definiteness suffix on the noun that is absent when a demonstrative occurs at the boundary?</t>
+  </si>
+  <si>
+    <t>When the whole nominal argument is understood as definite, do you find definite articles replicated on the adjectives realized as reduced relative clauses?</t>
+  </si>
+  <si>
+    <t>When the whole nominal argument is understood as definite, are the adjectives realized as reduced relative clauses 'bare' (i.e. they do not exhibit definite articles)?</t>
+  </si>
+  <si>
+    <t>When the whole nominal argument is understood as definite, do you find definite articles replicated on the head noun and its adjectival modifiers, regardless of their position?</t>
+  </si>
+  <si>
+    <t>When the whole nominal argument modified by structured adjectives is understood as definite, do you find a definiteness mark at the boundary and /or on the head noun, while structures adjectives have no definiteness mark?</t>
+  </si>
+  <si>
+    <t>Do you find a definiteness suffix occurring on a prenominal cardinal numeral?</t>
+  </si>
+  <si>
+    <t>Do you find 'bare' proper names in argument function?</t>
+  </si>
+  <si>
+    <t>As a general rule, do proper names of cities occur with a visible article in argument function?</t>
+  </si>
+  <si>
+    <t>Do you find 'bare' proper first names referring to individuals in argument function?</t>
+  </si>
+  <si>
+    <t>As a general rule, do proper first names referring to male individuals occur with a visible article in argument function?</t>
+  </si>
+  <si>
+    <t>As a general rule, do proper first names referring to female individuals occur 'bare' in argument function?</t>
+  </si>
+  <si>
+    <t>As a general rule, do proper first names referring to female individuals occur with a visible article in argument function?</t>
+  </si>
+  <si>
+    <t>Do you find definite nominal arguments containing a possessive occurring in the position of the definite article, and no visible article is present?</t>
+  </si>
+  <si>
+    <t>Do you find indefinite nominal arguments containing a postnominal possessive that has non-contrastive /"neutral" reading?</t>
+  </si>
+  <si>
+    <t>Do possessives co-occur with a definite determiner (and the two are strictly adjacent), but not with an indefinite determiner/quantifier or a demonstrative?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, do you find possessives which co-occur with an adjacent non-definite determiner?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, do you find possessives not agreeing in phi-features with the noun which are attached to a prenominal Adjective/Numeral and cooccur with non-pronominal non-adpositional Genitives?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, do you find non-agreeing possessives immediately adjacent to the head noun and directly modifying it (i.e. with no linker)?</t>
+  </si>
+  <si>
+    <t>Do you find postnominal possessives that co-occur with articles/demonstratives/quantifiers/numerals and are constructed in the same way as postnominal adjectives (with or without a linker, with or without reduplication of the article, etc., depending on the language)?</t>
+  </si>
+  <si>
+    <t>Do you find prenominal possessives that co-occur with articles/demonstratives/quantifiers/numerals and are constructed in the same way as prenominal adjectives (with or without a linker, with or without reduplication of the article, etc., depending on the language)?</t>
+  </si>
+  <si>
+    <t>Do you find prenominal possessives not agreeing in phi-features with the head noun occurring between a visible determiner and a cardinal numeral?</t>
+  </si>
+  <si>
+    <t>Do you find prenominal possessives following a cardinal numeral, which in turn follows a visible determiner (i.e., the possessive is the third element of the sequence)?</t>
+  </si>
+  <si>
+    <t>Do you find nominals whose internal argument is realized as an adjective derived from a proper name or a common noun?</t>
+  </si>
+  <si>
+    <t>Do you find nominals where an argument adjective binds non-null personal anaphoric/pronominal expressions?</t>
+  </si>
+  <si>
+    <t>Do you find singular kinship nouns introduced by a definite article and no visible possessive licensing a (3rd person) understood pronoun that can be interpreted as bound?</t>
+  </si>
+  <si>
+    <t>Does the language have deictically neutral demonstratives that are formally distinct from those which encode deictic relations?</t>
+  </si>
+  <si>
+    <t>Do you find deictic demonstratives realized as two separate words?</t>
+  </si>
+  <si>
+    <t>Do you find deictically neutral demonstratives realized as two separate words?</t>
+  </si>
+  <si>
+    <t>Do you find deictic demonstratives realized as one single word?</t>
+  </si>
+  <si>
+    <t>Do you find demonstratives co-occurring with articles?</t>
+  </si>
+  <si>
+    <t>Do you find deictically neutral demonstratives realized as one single word?</t>
+  </si>
+  <si>
+    <t>Do you find demonstratives occurring at the boundary of an articleless nominal argument?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, do you find demonstratives co-occurring with articles at the boundary?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, do you find demonstratives following the noun and preceding Genitives and/or PPs?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, do you find demonstratives occurring either to the right or to the left of articles/numerals?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, do you find demonstratives occurring between a noun bearing a definiteness affix and an adjective?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, are demonstratives and adjectives freely ordered?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, are demonstratives and adpositional Genitives freely ordered?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, are demonstratives and relative clauses freely ordered?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, are demonstratives and the numeral "one" freely ordered?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, are demonstratives and numerals freely ordered?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, are demonstratives and PPs freely ordered?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, do you find demonstratives preceding articles or numerals in languages with phrase-initial determiners where reduced relative clauses can also precede articles/numerals?</t>
+  </si>
+  <si>
+    <t>In nominal arguments, do you find phrase-initial demonstratives?</t>
+  </si>
+  <si>
+    <t>In articleless nominal arguments, do you find demonstratives not occurring at the boundary?</t>
+  </si>
+  <si>
+    <t>Do you find adjectival demonstratives introduced by a copy of the definite article of the whole nominal phrase?</t>
+  </si>
+  <si>
+    <t>Is any of the following sequences available in nominal arguments? a. Art N Dem Art Adj, b. Art N Art Adj Dem, c. Dem Art Adj Art N, d. Dem Art N Art Adj</t>
+  </si>
+  <si>
+    <t>Does the language have demonstratives ocurring phrase-initially (and co-occurring with definite articles, if the language has any)?</t>
+  </si>
+  <si>
+    <t>Do you find negative or existential quantifiers, in the singular and non-overtly marked as 1st person, that control 1st person plural verb agreement?</t>
+  </si>
+  <si>
+    <t>Do you find negative or existential quantifiers, in the singular and non-overtly marked as 2nd person, that control 2nd person plural verb agreement?</t>
+  </si>
+  <si>
+    <t>Do adjectival possessives bear variable number/gender morphology?</t>
+  </si>
+  <si>
+    <t>Do you find singular kinship nouns introduced by a definite article and no visible possessive licensing a 1st person understood pronoun that can be interpreted as bound?</t>
+  </si>
+  <si>
+    <t>Do you find singular kinship nouns introduced by a definite article and no visible possessive licensing a 2nd person understood pronoun that can be interpreted as bound?</t>
+  </si>
+  <si>
+    <t>Do you find split demonstratives where both items overtly encode deictic information?</t>
+  </si>
+  <si>
+    <t>Does the language have a morpheme that introduces possessives, that is distinct from Case marking, articles, and adpositions introducing Genitives?</t>
+  </si>
+  <si>
+    <t>In argument nominals not introduced by a definite article, do you find possessives that have the following properties? 1. occur in the complement of an adpositional structure headed by the same adposition; 2. are realized in their pronominal form introducing nominal Free Genitives; 3. agree in phi-features with the head noun</t>
+  </si>
+  <si>
+    <t>Does the language have ‘partitive’ articles (realized as a combination of an adposition and a definite article, like Romance de+art) which can (or must) occur with non-definite existential plural and/or mass argument nominals?</t>
+  </si>
+  <si>
+    <t>Is there agreement in gender between the numeral 'two' and the head noun?</t>
+  </si>
+  <si>
+    <t>Is there agreement in gender between numerals higher than 'two' and the head noun?</t>
+  </si>
+  <si>
+    <t>Do you find the noun CASA occurring bare in argument function (whether or not modified by a genitive/adjective/possessive)?</t>
+  </si>
+  <si>
+    <t>In languages with prenominal possessives, do you find nominal arguments with a definite reading but no overt article and the noun CASA followed by a possessive?</t>
+  </si>
+  <si>
+    <t>Do you find articleless nominal arguments where the noun CASA is modified by the same type of enclitic possessive that modifies (articleless) singular kinship nouns?</t>
+  </si>
+  <si>
+    <t>Does the language have dedicated clitic forms of possessive that are used when modifying an articleless argument singular kinship noun and are different from those occurring with other nouns?</t>
+  </si>
+  <si>
+    <t>Does the language have dedicated clitic forms of 3rd person possessives that are used when modifying an articleless argument singular kinship noun and are different from those occurring with other nouns?</t>
   </si>
 </sst>
 </file>
@@ -133,31 +2033,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -189,16 +2109,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}" name="questions" displayName="questions" ref="A1:G5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G5" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}" name="questions" displayName="questions" ref="A1:G247" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:G247" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{67101A1B-8988-4C10-B195-721AF4A4DDFE}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{DAC026A4-4E08-45C5-B847-62B6EE459D89}" uniqueName="2" name="parameter_id" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D9BAD92C-B225-46BB-B2D0-72E22D71473D}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2D445D34-3D4E-46E5-A031-AEF21A353ACC}" uniqueName="4" name="example_yes" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1A723189-B285-4202-A439-2A700C433930}" uniqueName="5" name="instruction" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{346B1415-F909-425C-8E39-5140B8FB4AE1}" uniqueName="6" name="template_type" queryTableFieldId="6" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{364735F5-D972-427D-BA27-3715C335102D}" uniqueName="7" name="is_stop_question" queryTableFieldId="7"/>
+    <tableColumn id="1" xr3:uid="{67101A1B-8988-4C10-B195-721AF4A4DDFE}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{DAC026A4-4E08-45C5-B847-62B6EE459D89}" uniqueName="2" name="parameter_id" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D9BAD92C-B225-46BB-B2D0-72E22D71473D}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2D445D34-3D4E-46E5-A031-AEF21A353ACC}" uniqueName="4" name="example_yes" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{1A723189-B285-4202-A439-2A700C433930}" uniqueName="5" name="instruction" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{346B1415-F909-425C-8E39-5140B8FB4AE1}" uniqueName="6" name="template_type" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{364735F5-D972-427D-BA27-3715C335102D}" uniqueName="7" name="is_stop_question" queryTableFieldId="7" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -467,45 +2387,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7F8A9-63CE-4FE3-9607-7AA57A6C5082}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="110" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -513,87 +2436,4303 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
+      <c r="B10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="240" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="240" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="395" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="350" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F183" s="2"/>
+      <c r="G183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F184" s="2"/>
+      <c r="G184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F185" s="2"/>
+      <c r="G185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F194" s="2"/>
+      <c r="G194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F198" s="2"/>
+      <c r="G198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F200" s="2"/>
+      <c r="G200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F201" s="2"/>
+      <c r="G201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F204" s="2"/>
+      <c r="G204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F206" s="2"/>
+      <c r="G206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F207" s="2"/>
+      <c r="G207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F208" s="2"/>
+      <c r="G208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F209" s="2"/>
+      <c r="G209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F210" s="2"/>
+      <c r="G210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F212" s="2"/>
+      <c r="G212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F219" s="2"/>
+      <c r="G219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F220" s="2"/>
+      <c r="G220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F221" s="2"/>
+      <c r="G221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F222" s="2"/>
+      <c r="G222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F223" s="2"/>
+      <c r="G223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F224" s="2"/>
+      <c r="G224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F227" s="2"/>
+      <c r="G227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F230" s="2"/>
+      <c r="G230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F231" s="2"/>
+      <c r="G231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F235" s="2"/>
+      <c r="G235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F242" s="2"/>
+      <c r="G242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F246" s="2"/>
+      <c r="G246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F247" s="2"/>
+      <c r="G247" s="1">
         <v>0</v>
       </c>
     </row>
@@ -602,18 +6741,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/POM Unimore/Database PCM_Hub/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D2E7C8-AE16-014C-B5A2-09BAB94B740D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D2B60-B2A0-BC4B-87C8-2855641DD0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6005,8 +6005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7F8A9-63CE-4FE3-9607-7AA57A6C5082}">
   <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F254" sqref="F254"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239:A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10731,11 +10731,11 @@
       </c>
     </row>
     <row r="239" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
+        <v>334</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B239" t="s">
-        <v>334</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>175</v>
@@ -10751,11 +10751,11 @@
       </c>
     </row>
     <row r="240" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
+        <v>335</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B240" t="s">
-        <v>335</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>501</v>
@@ -10768,11 +10768,11 @@
       </c>
     </row>
     <row r="241" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
+        <v>336</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B241" t="s">
-        <v>336</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>502</v>
@@ -10785,11 +10785,11 @@
       </c>
     </row>
     <row r="242" spans="1:9" ht="192" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
+        <v>337</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B242" t="s">
-        <v>337</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>503</v>
@@ -10805,11 +10805,11 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="176" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
+        <v>338</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B243" t="s">
-        <v>338</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>504</v>
@@ -10825,11 +10825,11 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="176" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
+        <v>339</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B244" t="s">
-        <v>339</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>505</v>
@@ -10845,11 +10845,11 @@
       </c>
     </row>
     <row r="245" spans="1:9" ht="195" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
+        <v>340</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B245" t="s">
-        <v>340</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>506</v>
@@ -10865,11 +10865,11 @@
       </c>
     </row>
     <row r="246" spans="1:9" ht="135" x14ac:dyDescent="0.2">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
+        <v>341</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B246" t="s">
-        <v>341</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>507</v>
@@ -10882,11 +10882,11 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="270" x14ac:dyDescent="0.2">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
+        <v>342</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B247" t="s">
-        <v>342</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>613</v>
@@ -10899,11 +10899,11 @@
       </c>
     </row>
     <row r="248" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
+        <v>343</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B248" t="s">
-        <v>343</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>508</v>
@@ -10916,11 +10916,11 @@
       </c>
     </row>
     <row r="249" spans="1:9" ht="105" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
+        <v>344</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B249" t="s">
-        <v>344</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>509</v>
@@ -10933,11 +10933,11 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="210" x14ac:dyDescent="0.2">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
+        <v>345</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B250" t="s">
-        <v>345</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>510</v>
@@ -10953,11 +10953,11 @@
       </c>
     </row>
     <row r="251" spans="1:9" ht="180" x14ac:dyDescent="0.2">
-      <c r="A251" s="1" t="s">
+      <c r="A251" t="s">
+        <v>346</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B251" t="s">
-        <v>346</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>511</v>
@@ -10970,11 +10970,11 @@
       </c>
     </row>
     <row r="252" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A252" s="1" t="s">
+      <c r="A252" t="s">
+        <v>347</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B252" t="s">
-        <v>347</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>512</v>
@@ -10987,11 +10987,11 @@
       </c>
     </row>
     <row r="253" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
+      <c r="A253" t="s">
+        <v>348</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B253" t="s">
-        <v>348</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>513</v>
@@ -11004,11 +11004,11 @@
       </c>
     </row>
     <row r="254" spans="1:9" ht="224" x14ac:dyDescent="0.2">
-      <c r="A254" s="1" t="s">
+      <c r="A254" t="s">
+        <v>349</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B254" t="s">
-        <v>349</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>514</v>
@@ -11024,11 +11024,11 @@
       </c>
     </row>
     <row r="255" spans="1:9" ht="208" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
+      <c r="A255" t="s">
+        <v>350</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B255" t="s">
-        <v>350</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>515</v>

--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/POM Unimore/Database PCM_Hub/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D2B60-B2A0-BC4B-87C8-2855641DD0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881D8759-9D2F-3542-BC1A-8989E031DBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="2" r:id="rId1"/>
@@ -1901,9 +1901,6 @@
     <t>Do you find morphological alternations in nominal arguments (e.g. on the head noun) that oppose singular to non-singular interpretation?</t>
   </si>
   <si>
-    <t>FGN_Qf</t>
-  </si>
-  <si>
     <t>In argument nominals not introduced by a definite article, do you find possessives that have the following properties?
 1. occur in the complement of an adpositional structure headed by the same adposition introducing nominal Free Genitives
 2. are realized in their pronominal form
@@ -4189,9 +4186,6 @@
 2.2. le case (sono sulla collina)
 the.F.PL house.F.PL be.3PL on.the.F.SG hill.F.SG
 'the houses are on the hill'</t>
-  </si>
-  <si>
-    <t>FGN_Qe</t>
   </si>
   <si>
     <t>Korean
@@ -5557,6 +5551,12 @@
   <si>
     <t>Can a sentence like "I must meet the wife/sister/brother/husband/cousin at the airport" have the meaning "I must meet my wife/sister/cousin at the airport"?
 DO NOT USE KINSHIP NOUNS NORMALLY USED AS VOCATIVES (AND SUBSTITUTES OF PROPER NAMES), SUCH AS "MUM" OR "DAD" TO ANSWER THIS QUESTION</t>
+  </si>
+  <si>
+    <t>FGN_Qb</t>
+  </si>
+  <si>
+    <t>FGN_Qc</t>
   </si>
 </sst>
 </file>
@@ -6005,8 +6005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7F8A9-63CE-4FE3-9607-7AA57A6C5082}">
   <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:A255"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6038,10 +6038,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -6061,10 +6061,10 @@
         <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -6081,10 +6081,10 @@
         <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -6101,7 +6101,7 @@
         <v>148</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -6118,16 +6118,16 @@
         <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>849</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -6144,10 +6144,10 @@
         <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -6164,10 +6164,10 @@
         <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -6184,7 +6184,7 @@
         <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -6201,13 +6201,13 @@
         <v>153</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -6224,10 +6224,10 @@
         <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -6244,10 +6244,10 @@
         <v>155</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>156</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -6281,13 +6281,13 @@
         <v>157</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>158</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -6321,10 +6321,10 @@
         <v>159</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -6341,16 +6341,16 @@
         <v>160</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -6367,16 +6367,16 @@
         <v>161</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>864</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -6393,7 +6393,7 @@
         <v>162</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -6410,10 +6410,10 @@
         <v>163</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -6430,13 +6430,13 @@
         <v>164</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -6453,10 +6453,10 @@
         <v>165</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>166</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>167</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="24" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>103</v>
@@ -6507,7 +6507,7 @@
         <v>168</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="25" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>104</v>
@@ -6524,10 +6524,10 @@
         <v>611</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="26" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>834</v>
+        <v>1065</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>104</v>
@@ -6544,10 +6544,10 @@
         <v>169</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="27" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>1066</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>104</v>
@@ -6564,10 +6564,10 @@
         <v>585</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>612</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>104</v>
@@ -6584,7 +6584,7 @@
         <v>586</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>170</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -6618,10 +6618,10 @@
         <v>171</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>172</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -6655,10 +6655,10 @@
         <v>587</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -6675,7 +6675,7 @@
         <v>173</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -6692,10 +6692,10 @@
         <v>174</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -6712,10 +6712,10 @@
         <v>175</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -6732,7 +6732,7 @@
         <v>176</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
@@ -6749,7 +6749,7 @@
         <v>177</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -6766,10 +6766,10 @@
         <v>178</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>179</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -6803,7 +6803,7 @@
         <v>180</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -6820,7 +6820,7 @@
         <v>181</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
@@ -6837,7 +6837,7 @@
         <v>182</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -6854,10 +6854,10 @@
         <v>183</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -6874,7 +6874,7 @@
         <v>184</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
@@ -6891,7 +6891,7 @@
         <v>185</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>186</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
@@ -6925,10 +6925,10 @@
         <v>187</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -6945,13 +6945,13 @@
         <v>188</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>189</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>190</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -7002,10 +7002,10 @@
         <v>191</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
@@ -7022,10 +7022,10 @@
         <v>192</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>193</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -7062,10 +7062,10 @@
         <v>194</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>195</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -7099,7 +7099,7 @@
         <v>196</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
@@ -7116,7 +7116,7 @@
         <v>197</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -7133,7 +7133,7 @@
         <v>600</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
@@ -7150,10 +7150,10 @@
         <v>198</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -7170,13 +7170,13 @@
         <v>199</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -7193,13 +7193,13 @@
         <v>200</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>201</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -7236,16 +7236,16 @@
         <v>202</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -7262,13 +7262,13 @@
         <v>203</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>601</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -7302,13 +7302,13 @@
         <v>204</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -7325,16 +7325,16 @@
         <v>205</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
@@ -7351,16 +7351,16 @@
         <v>206</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
@@ -7377,13 +7377,13 @@
         <v>207</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -7400,10 +7400,10 @@
         <v>208</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -7420,10 +7420,10 @@
         <v>209</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>210</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
@@ -7463,10 +7463,10 @@
         <v>211</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
@@ -7483,13 +7483,13 @@
         <v>588</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -7506,10 +7506,10 @@
         <v>212</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
@@ -7526,13 +7526,13 @@
         <v>213</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -7549,13 +7549,13 @@
         <v>214</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
@@ -7572,10 +7572,10 @@
         <v>215</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
@@ -7592,10 +7592,10 @@
         <v>216</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
@@ -7612,10 +7612,10 @@
         <v>217</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>218</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>219</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I82" s="1">
         <v>1</v>
@@ -7669,7 +7669,7 @@
         <v>220</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
@@ -7686,10 +7686,10 @@
         <v>221</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="I84" s="1">
         <v>1</v>
@@ -7706,13 +7706,13 @@
         <v>222</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
@@ -7729,7 +7729,7 @@
         <v>223</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I86" s="1">
         <v>1</v>
@@ -7746,10 +7746,10 @@
         <v>224</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
@@ -7766,10 +7766,10 @@
         <v>225</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I88" s="1">
         <v>1</v>
@@ -7786,7 +7786,7 @@
         <v>226</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I89" s="1">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>227</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I90" s="1">
         <v>1</v>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="91" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>128</v>
@@ -7820,7 +7820,7 @@
         <v>228</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="92" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>128</v>
@@ -7837,10 +7837,10 @@
         <v>229</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="I92" s="1">
         <v>0</v>
@@ -7848,7 +7848,7 @@
     </row>
     <row r="93" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>128</v>
@@ -7857,10 +7857,10 @@
         <v>230</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="I93" s="1">
         <v>0</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="94" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>128</v>
@@ -7877,10 +7877,10 @@
         <v>589</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I94" s="1">
         <v>0</v>
@@ -7897,13 +7897,13 @@
         <v>231</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
@@ -7920,7 +7920,7 @@
         <v>232</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I96" s="1">
         <v>1</v>
@@ -7937,13 +7937,13 @@
         <v>233</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I97" s="1">
         <v>0</v>
@@ -7960,7 +7960,7 @@
         <v>234</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I98" s="1">
         <v>1</v>
@@ -7977,13 +7977,13 @@
         <v>235</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>236</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I100" s="1">
         <v>1</v>
@@ -8017,13 +8017,13 @@
         <v>237</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="I101" s="1">
         <v>0</v>
@@ -8040,7 +8040,7 @@
         <v>590</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I102" s="1">
         <v>1</v>
@@ -8057,7 +8057,7 @@
         <v>238</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I103" s="1">
         <v>0</v>
@@ -8074,7 +8074,7 @@
         <v>239</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>240</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I105" s="1">
         <v>0</v>
@@ -8108,13 +8108,13 @@
         <v>241</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I106" s="1">
         <v>0</v>
@@ -8131,7 +8131,7 @@
         <v>242</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I107" s="1">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>243</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I108" s="1">
         <v>1</v>
@@ -8165,10 +8165,10 @@
         <v>244</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
@@ -8185,10 +8185,10 @@
         <v>245</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I110" s="1">
         <v>1</v>
@@ -8205,7 +8205,7 @@
         <v>246</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>247</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I112" s="1">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>248</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I113" s="1">
         <v>1</v>
@@ -8256,10 +8256,10 @@
         <v>249</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I114" s="1">
         <v>0</v>
@@ -8276,10 +8276,10 @@
         <v>250</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -8296,10 +8296,10 @@
         <v>251</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -8316,10 +8316,10 @@
         <v>252</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I117" s="1">
         <v>0</v>
@@ -8336,10 +8336,10 @@
         <v>253</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
@@ -8356,10 +8356,10 @@
         <v>254</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -8376,10 +8376,10 @@
         <v>255</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I120" s="1">
         <v>0</v>
@@ -8396,10 +8396,10 @@
         <v>256</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>257</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I122" s="1">
         <v>1</v>
@@ -8433,10 +8433,10 @@
         <v>258</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I123" s="1">
         <v>1</v>
@@ -8453,7 +8453,7 @@
         <v>257</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I124" s="1">
         <v>0</v>
@@ -8470,13 +8470,13 @@
         <v>259</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -8493,13 +8493,13 @@
         <v>260</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I126" s="1">
         <v>0</v>
@@ -8516,13 +8516,13 @@
         <v>261</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I127" s="1">
         <v>0</v>
@@ -8539,10 +8539,10 @@
         <v>262</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I128" s="1">
         <v>0</v>
@@ -8559,10 +8559,10 @@
         <v>411</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
@@ -8579,7 +8579,7 @@
         <v>412</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I130" s="1">
         <v>1</v>
@@ -8596,7 +8596,7 @@
         <v>591</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I131" s="1">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         <v>413</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I132" s="1">
         <v>1</v>
@@ -8630,10 +8630,10 @@
         <v>414</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>592</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I134" s="1">
         <v>1</v>
@@ -8667,10 +8667,10 @@
         <v>415</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>416</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I136" s="1">
         <v>1</v>
@@ -8704,10 +8704,10 @@
         <v>417</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>418</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I138" s="1">
         <v>1</v>
@@ -8741,7 +8741,7 @@
         <v>419</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I139" s="1">
         <v>0</v>
@@ -8758,13 +8758,13 @@
         <v>420</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I140" s="1">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>421</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I141" s="1">
         <v>1</v>
@@ -8798,7 +8798,7 @@
         <v>422</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I142" s="1">
         <v>1</v>
@@ -8815,13 +8815,13 @@
         <v>423</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I143" s="1">
         <v>0</v>
@@ -8838,7 +8838,7 @@
         <v>424</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I144" s="1">
         <v>1</v>
@@ -8855,13 +8855,13 @@
         <v>425</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I145" s="1">
         <v>0</v>
@@ -8878,13 +8878,13 @@
         <v>593</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I146" s="1">
         <v>0</v>
@@ -8901,7 +8901,7 @@
         <v>426</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I147" s="1">
         <v>1</v>
@@ -8918,13 +8918,13 @@
         <v>427</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I148" s="1">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>428</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I149" s="1">
         <v>1</v>
@@ -8958,13 +8958,13 @@
         <v>429</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>430</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I151" s="1">
         <v>1</v>
@@ -8998,10 +8998,10 @@
         <v>431</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I152" s="1">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>432</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I153" s="1">
         <v>0</v>
@@ -9035,13 +9035,13 @@
         <v>433</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I154" s="1">
         <v>0</v>
@@ -9058,13 +9058,13 @@
         <v>434</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I155" s="1">
         <v>0</v>
@@ -9081,7 +9081,7 @@
         <v>435</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I156" s="1">
         <v>1</v>
@@ -9098,13 +9098,13 @@
         <v>436</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I157" s="1">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>437</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I158" s="1">
         <v>1</v>
@@ -9138,10 +9138,10 @@
         <v>602</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I159" s="1">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>603</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I160" s="1">
         <v>1</v>
@@ -9178,10 +9178,10 @@
         <v>438</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I161" s="1">
         <v>0</v>
@@ -9198,10 +9198,10 @@
         <v>439</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="I162" s="1">
         <v>0</v>
@@ -9218,10 +9218,10 @@
         <v>440</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I163" s="1">
         <v>0</v>
@@ -9238,10 +9238,10 @@
         <v>441</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I164" s="1">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>442</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="I165" s="1">
         <v>1</v>
@@ -9278,10 +9278,10 @@
         <v>443</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I166" s="1">
         <v>1</v>
@@ -9298,10 +9298,10 @@
         <v>444</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I167" s="1">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>445</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
@@ -9338,10 +9338,10 @@
         <v>446</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I169" s="1">
         <v>1</v>
@@ -9358,10 +9358,10 @@
         <v>604</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I170" s="1">
         <v>1</v>
@@ -9378,10 +9378,10 @@
         <v>447</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I171" s="1">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>448</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I172" s="1">
         <v>1</v>
@@ -9418,10 +9418,10 @@
         <v>449</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I173" s="1">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>450</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I174" s="1">
         <v>0</v>
@@ -9455,10 +9455,10 @@
         <v>451</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -9475,10 +9475,10 @@
         <v>605</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I176" s="1">
         <v>1</v>
@@ -9495,10 +9495,10 @@
         <v>452</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I177" s="1">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>453</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I178" s="1">
         <v>0</v>
@@ -9532,10 +9532,10 @@
         <v>606</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I179" s="1">
         <v>1</v>
@@ -9552,7 +9552,7 @@
         <v>454</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I180" s="1">
         <v>0</v>
@@ -9569,10 +9569,10 @@
         <v>607</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I181" s="1">
         <v>1</v>
@@ -9589,10 +9589,10 @@
         <v>608</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I182" s="1">
         <v>1</v>
@@ -9609,10 +9609,10 @@
         <v>455</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I183" s="1">
         <v>0</v>
@@ -9629,13 +9629,13 @@
         <v>456</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I184" s="1">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>457</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I185" s="1">
         <v>0</v>
@@ -9672,13 +9672,13 @@
         <v>458</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I186" s="1">
         <v>0</v>
@@ -9695,13 +9695,13 @@
         <v>459</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I187" s="1">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>594</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I188" s="1">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>460</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I189" s="1">
         <v>0</v>
@@ -9752,16 +9752,16 @@
         <v>461</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>994</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
@@ -9778,7 +9778,7 @@
         <v>462</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I191" s="1">
         <v>1</v>
@@ -9795,10 +9795,10 @@
         <v>595</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I192" s="1">
         <v>0</v>
@@ -9815,10 +9815,10 @@
         <v>596</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I193" s="1">
         <v>1</v>
@@ -9835,10 +9835,10 @@
         <v>463</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I194" s="1">
         <v>0</v>
@@ -9855,10 +9855,10 @@
         <v>464</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I195" s="1">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>465</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I196" s="1">
         <v>1</v>
@@ -9892,10 +9892,10 @@
         <v>466</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I197" s="1">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         <v>467</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I198" s="1">
         <v>1</v>
@@ -9929,7 +9929,7 @@
         <v>468</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I199" s="1">
         <v>0</v>
@@ -9946,7 +9946,7 @@
         <v>469</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I200" s="1">
         <v>1</v>
@@ -9963,10 +9963,10 @@
         <v>470</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I201" s="1">
         <v>0</v>
@@ -9983,7 +9983,7 @@
         <v>471</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I202" s="1">
         <v>0</v>
@@ -10000,7 +10000,7 @@
         <v>472</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I203" s="1">
         <v>0</v>
@@ -10017,7 +10017,7 @@
         <v>473</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I204" s="1">
         <v>1</v>
@@ -10034,13 +10034,13 @@
         <v>609</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I205" s="1">
         <v>0</v>
@@ -10057,13 +10057,13 @@
         <v>474</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I206" s="1">
         <v>0</v>
@@ -10080,16 +10080,16 @@
         <v>475</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G207" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>1007</v>
       </c>
       <c r="I207" s="1">
         <v>0</v>
@@ -10106,16 +10106,16 @@
         <v>476</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E208" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G208" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>1010</v>
       </c>
       <c r="I208" s="1">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>477</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I209" s="1">
         <v>0</v>
@@ -10149,7 +10149,7 @@
         <v>478</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I210" s="1">
         <v>1</v>
@@ -10166,10 +10166,10 @@
         <v>479</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I211" s="1">
         <v>0</v>
@@ -10186,10 +10186,10 @@
         <v>480</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I212" s="1">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>481</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I213" s="1">
         <v>0</v>
@@ -10226,13 +10226,13 @@
         <v>482</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="I214" s="1">
         <v>0</v>
@@ -10249,10 +10249,10 @@
         <v>483</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="I215" s="1">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>484</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I216" s="1">
         <v>0</v>
@@ -10289,7 +10289,7 @@
         <v>485</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I217" s="1">
         <v>1</v>
@@ -10306,7 +10306,7 @@
         <v>486</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I218" s="1">
         <v>1</v>
@@ -10323,10 +10323,10 @@
         <v>484</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I219" s="1">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>487</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I220" s="1">
         <v>1</v>
@@ -10360,7 +10360,7 @@
         <v>488</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I221" s="1">
         <v>0</v>
@@ -10377,7 +10377,7 @@
         <v>489</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I222" s="1">
         <v>1</v>
@@ -10394,16 +10394,16 @@
         <v>490</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E223" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G223" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>1019</v>
       </c>
       <c r="I223" s="1">
         <v>0</v>
@@ -10420,16 +10420,16 @@
         <v>491</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E224" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>1022</v>
       </c>
       <c r="I224" s="1">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>492</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I225" s="1">
         <v>0</v>
@@ -10466,13 +10466,13 @@
         <v>493</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I226" s="1">
         <v>0</v>
@@ -10486,16 +10486,16 @@
         <v>392</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I227" s="1">
         <v>0</v>
@@ -10512,13 +10512,13 @@
         <v>494</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I228" s="1">
         <v>0</v>
@@ -10535,13 +10535,13 @@
         <v>495</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I229" s="1">
         <v>0</v>
@@ -10558,13 +10558,13 @@
         <v>496</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I230" s="1">
         <v>0</v>
@@ -10581,13 +10581,13 @@
         <v>497</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="I231" s="1">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>498</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I232" s="1">
         <v>0</v>
@@ -10621,7 +10621,7 @@
         <v>499</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I233" s="1">
         <v>0</v>
@@ -10638,13 +10638,13 @@
         <v>597</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I234" s="1">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>598</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I235" s="1">
         <v>0</v>
@@ -10684,7 +10684,7 @@
         <v>599</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I236" s="1">
         <v>1</v>
@@ -10701,10 +10701,10 @@
         <v>500</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I237" s="1">
         <v>0</v>
@@ -10721,10 +10721,10 @@
         <v>610</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I238" s="1">
         <v>1</v>
@@ -10741,10 +10741,10 @@
         <v>175</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="I239" s="1">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>501</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I240" s="1">
         <v>0</v>
@@ -10778,7 +10778,7 @@
         <v>502</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="I241" s="1">
         <v>0</v>
@@ -10795,10 +10795,10 @@
         <v>503</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I242" s="1">
         <v>0</v>
@@ -10815,10 +10815,10 @@
         <v>504</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I243" s="1">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>505</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I244" s="1">
         <v>0</v>
@@ -10855,10 +10855,10 @@
         <v>506</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I245" s="1">
         <v>0</v>
@@ -10875,7 +10875,7 @@
         <v>507</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I246" s="1">
         <v>0</v>
@@ -10889,10 +10889,10 @@
         <v>404</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I247" s="1">
         <v>0</v>
@@ -10909,7 +10909,7 @@
         <v>508</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I248" s="1">
         <v>0</v>
@@ -10926,7 +10926,7 @@
         <v>509</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I249" s="1">
         <v>0</v>
@@ -10943,10 +10943,10 @@
         <v>510</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I250" s="1">
         <v>0</v>
@@ -10963,7 +10963,7 @@
         <v>511</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I251" s="1">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>512</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I252" s="1">
         <v>0</v>
@@ -10997,7 +10997,7 @@
         <v>513</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="I253" s="1">
         <v>0</v>
@@ -11014,10 +11014,10 @@
         <v>514</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I254" s="1">
         <v>0</v>
@@ -11034,10 +11034,10 @@
         <v>515</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I255" s="1">
         <v>0</v>

--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/POM Unimore/Database PCM_Hub/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881D8759-9D2F-3542-BC1A-8989E031DBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA08B1D2-9D85-8E4B-91BE-CD666E060022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="23340" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="989">
   <si>
     <t>id</t>
   </si>
@@ -4328,12 +4328,6 @@
 For each example, provide two instances where one and the same personal/relative pronoun occurs in two different syntactic functions (e.g., subject and object) and has two different forms.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no personal/relative pronouns
-- There are no differences in the morphology of personal/relative pronouns depending on their syntactic function
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using different quantifiers, demonstratives and/or definite/indefinite articles.
 For each example, provide two different instances where the quantifier, demonstrative and/or definite/indefinite article occurs in two different syntactic functions (e.g., subject and object) and has two different forms.</t>
   </si>
@@ -4347,12 +4341,6 @@
 For each noun, list all the different available morphological Case distinctions expressing spatial relations.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- the language has no Case morphology on nouns
-- the language has Case morphology on nouns, but there are no morphological Case distinctions expressing spatial relations more complex than stative location, direction, and source
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Provide examples using at least two different nouns.
 For each, list at least two instances of different spatial relations expressed by different prepositions</t>
   </si>
@@ -4364,9 +4352,6 @@
     <t>Do not use an existential construction (e.g. 'There is a dog in the garden') to answer this question.</t>
   </si>
   <si>
-    <t>Provide an example with no overt expletive (e.g. Italian è estate)</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using different speech role designating items (if possible).
 For each example, provide one instance of a referentially indepentent pronoun (Mary likes him) and one instance where the same pronoun occurs as a variable bound by a quantified antecedent (everybody/no-one(i) believes that Mary likes him(i)).</t>
   </si>
@@ -4377,13 +4362,6 @@
   <si>
     <t>Provide at least two examples, using different speech role designating items.
 For each example, provide one instance where an adjective occurrs to the left of the head noun, and one instance where the same adjective occurs to the right of a speech role designating item.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no speech role designating items
-- Speech role designating items occur to the right of Adjectives/Numerals
-- The language has no prenominal Adjectives/Numerals
-If you want to provide any relevant example, do so in the Comments box</t>
   </si>
   <si>
     <t>This question can be answered only if the language has no article. If the language has an article, select the answer NO.</t>
@@ -4393,13 +4371,6 @@
 For each example, provide: 
 (1) one instance of a nominal argument where the cardinal numeral follows a possessive (or an adjective meaning 'other', 'same/even' or 'unique', or the noun itself) and the whole structure is interpreted as definite; 
 (2) one instance of a nominal argument where the same cardinal numeral precedes the same item(s) and the whole structure is not interepreted as definite.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has articles
-- the order of cardinal numerals and possessives/adjectives meaning 'other', 'same/even' or 'unique'/the noun itself is fixed
-- word order alternations of cardinal numerals and possessives/adjectives meaning 'other', 'same/even' or 'unique'/the noun itself are not associated with differences in the definite/non definite intepretation of the nominal argument
-If you want to provide any example, do so in the Comments box</t>
   </si>
   <si>
     <t>Provide at least two examples, with two different nouns. For each example, provide:
@@ -4437,18 +4408,6 @@
 For each adjective, provide two instances of different forms depending on different number interpretations of the head noun.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no group markers
-- The language has a group marker, but the latter does not occur on adjectives
-If you want to provide any relevant example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no group markers
-- The language has a group marker, but the latter does not occur twice in this type of sentences
-If you want to provide any relevant example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>If you answered YES to FGN_Qa, write "same examples as FGN_Qa".</t>
   </si>
   <si>
@@ -4469,22 +4428,8 @@
 For each adjective, provide two instances of different forms depending on different gender information encoded on the head noun.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- nominal arguments cannot be realized as bare
-- singular count nouns in argument position cannot be realized as bare
-- there are no singular vs. non-singular alternations on nouns
-- bare singular count nouns occurring in the object position of an atelic predicate never have number-neutral reading 
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using two different nouns.
 For each noun, provide one instance of it occurring bare in subject position with definite reading, and one instance of it occurring in subject position with a dedicated morpheme encoding indefinite/non presuppositional reading.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- there is no formal distinction between a noun with definite interpretation and a noun with no definite interpretation
-- there are systematic singular vs. non-singular alternations on nouns
-If you want to provide any example, do so in the Comments box</t>
   </si>
   <si>
     <t>Provide at least two examples, using two different nominal arguments.
@@ -4502,12 +4447,6 @@
   <si>
     <t>Provide at least two examples, using two different nominal arguments containing a plural and a mass noun, respectively.
 For each example, provide one instance where the noun is unambiguously interpreted as kind-referring (e.g. it is the subject of a predicate like be extinct/be introduced, or the object of a predicate like discover/create/invent) and is overtly marked, and one instance where the same noun is indefinite and has a different marker (or no marker at all).</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- nominal arguments cannot be realized as bare
-- singular count nouns in argument position cannot be realized as bare
-If you want to provide any example, do so in the Comments box</t>
   </si>
   <si>
     <t>To answer this question, follow the steps below:
@@ -4516,31 +4455,10 @@
 (3) If yes, can such a bare nominal argument have a definite interpretation?</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- the language has no non-adpositional Genitives
-- non adpositional Genitives only occur at the boundary of nominal structures
-- nouns cannot be bare when modified by (non adpositional) Genitives not occurring at the boundary of an argument nominal structure
-- bare nouns modified by a Genitive not occurring at the boundary do not have a definite interpretation
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using different nouns and demonstratives, if possible.
 For each example, provide one instance of a nominal argument containing a noun and an article, and one instance of a nominal argument where a demonstrative occurs with no article, in a position different than the position of the article.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- demonstratives systematically co-occur with articles
-- demonstratives are in complementary distribution with articles and systematically occur in the same position as articles
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no definiteness affixes
-- when a definite affix is attached to the noun, the latter occurs at the boundary of the nominal structure
-- when a definite affix is attached to the noun and the latter occurs in a non-boundary position, another overt definite category must appear at the boundary
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>This question can only be tested using an adjective that can occur in prenominal position only. If the language does not have such adjectives, select the answer NO.
 The question is relevant only in D-initial languages. If the language is D-final, select the answer NO.</t>
   </si>
@@ -4549,99 +4467,29 @@
 For each example, provide one instance of a nominal argument with an adjective modifying a common noun and occurring in prenominal position, and one instance of a bare nominal argument with the same adjective modifying a proper name and occurring in prenominal position.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- there are no prenominal adjectives
-- the language is D-final
-- all proper names systematically occur with an article in argument position (there are no bare argument proper names)
-- adjectives occur postnominally when modifying a bare proper name
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- there are no bare argument nouns
-- argument nominals with kind-referring interpretation always have an article
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- there are no bare nouns in subject position
-- argument nominals in subject position with generic interpretation always have an article
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Do not use a kinship noun in the singular to answer this question.</t>
   </si>
   <si>
     <t>For each example you provide, specify whether the definite intepretation is the only possible one by providing the relevant context (see DGR_Qa) or the ungrammatical/impossible interpretation.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- the language has no prenominal non-adpositional Genitives
-- when modified by a prenominal (non-adpositional) Genitives, the head noun agrees in phi-features with it
-- specific nominal arguments containing a prenominal Genitive cannot be bare
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>The question is relevant only in D-initial languages. If the language is D-final, select the answer NO.</t>
   </si>
   <si>
     <t>If you answered YES to CGR_Qd, and the examples you provided are relevant for this question as well, write "same examples as CGR_Qd"</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- the language has no definteness affixes
-- definite affixes only attach to initial constituents
-- the language is D-final</t>
-  </si>
-  <si>
     <t>This question can only be tested in languages that have possessives realized as independent lexical items that do not have to attach to any (nominal-like) head in pronominal function. If the language has no such items, the answer is NO.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no possessive items
-- the language has clitic possessives only
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one the following boxes:
-- the language has no subject-verb agreement
-- nominals unmarked as 1st/2nd person cannot control 1st/2nd verb agreement
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one the following boxes:
-- the language has no subject-verb agreement
-- there are no resumptive pronouns
-- 1st/2nd person pronouns cannot resume nominals unmarked as 1st/2nd person
-If you want to provide any example, do so in the Comments box</t>
   </si>
   <si>
     <t>Provide at least two examples. 
 For each example, provide one instance where the nominal argument has an article denoting non-proximity (in time or space), and one instance where the same noun is marked by an article denoting proximity (in time or space).</t>
   </si>
   <si>
-    <t>Check one the following boxes:
-- the language has no articles
-- articles encode no proximate vs. non-proximate distinction
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one the following boxes:
-- the language has no articles
-- articles encode no proximate vs. non-proximate distinction</t>
-  </si>
-  <si>
     <t>Provide examples using at least two different nouns.
 For each noun, provide at least one alternation in morphological Case/adposition such that one such Case/adposition assigns a partitive indefinite meaning while the other does not.</t>
   </si>
   <si>
-    <t>Check one of the following boxes.
-- the language has no Case morphology on nouns
-- partitive indefinite meaning is not expressed through adpositional alternations on bare head nouns
-- the language has Case morphology on nouns, but there are no morphological Case distinctions expressing partitive indefinite meaning as opposed to other readings
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Definite affixes are not to be analysed as part of the morphological make-up of a noun.</t>
   </si>
   <si>
@@ -4649,23 +4497,10 @@
 For each noun, provide one instance in which an article is suffixed to a noun modified by a postnominal modifier, and there is no other marker of the definite reading of the nominal structure.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- the language has no suffixed articles
-- the suffixed article is not the only marker of the definite reading of the nominal structure
-- the (suffixed) article is systematically phrase-final
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using different attributive adjectives.
 For each adjective, provide one instance in which an article is suffixed to the adjective, the latter is not the final item of the nominal structure and there is no other marker of the definite reading of the nominal structure.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- the language has no articles
-- articles cannot appear in nominal arguments that contain no overt noun
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using different nouns.
 For each noun, provide two instances: one with a definite determiner and one where no definite determiner appears and the noun (and possibly the adjective) has a special marker that only appears in the absence of the definite determiner.</t>
   </si>
@@ -4676,12 +4511,6 @@
     <t>You can use the same contexts as those of DGR_Qb.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- the language has no classifier
-- bare nominals without an overt classifier can receive a definite specific interpretation
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using different nouns.
 For each noun, provide instances with at least three different persons, if possible.</t>
   </si>
@@ -4690,59 +4519,20 @@
 For each adjective, provide one instance of an indefinite argument in which the adjective appears to the left of a cardinal numeral and one instance in which the adjective appears to the right of the same cardinal numeral.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no postnominal arguments
-- The language has postnominal arguments but adjectives do not follow them
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no prenominal Argument adjectives
-- The language has prenominal Argument adjectives but no postnominal adjectives
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using different nouns.
 For each noun, provide one instance where the noun is not modified by a Genitive and one where it is modified by a Genitive and has a different morpho-phonological form.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitive arguments
-- The form of the noun does not change depending on whether it is modified by a non-adpositional Genitive argument or not
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using different nouns modified by a Genitive argument.
 For each noun, provide one instance where the noun is modified by a 3rd person Genitive argument and one instance where it is modified by a 1st or 2nd person Genitive argument and has a different morpho-phonological form.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The form of the noun does not change depending on whether it is modified by a Genitive or not
-- The form of the noun does not change depending on whether it is modified by a 3rd person Genitive or not
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using different nouns modified by a Genitive argument.
 For each noun, provide one instance where the noun is modified by a 1st person Genitive argument and one instance where it is modified by a 2nd person Genitive argument and has a different morpho-phonological form.</t>
   </si>
   <si>
-    <t>Check one of the following boxes.
-- The language has no non-adpositional Genitives
-- The form of the noun does not change depending on whether it is modified by a Genitive or not
-- The form of the noun does not change depending on whether it is modified by a 1st or 2nd person Genitive
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using different nouns modified by a Genitive/possessive argument.
 For each noun, provide one instance where the noun is modified by a 3rd person Genitive argument and one instance where it is modified by a 1st or 2nd person Genitive argument and has a different morpho-phonological form.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The form of the noun does not change depending on whether it is modified by a Genitive or not
-- The form of the noun does not change depending on whether it is modified by a 3rd or by a 1st/2nd person Genitive
-If you want to provide any example, do so in the Comments box.</t>
   </si>
   <si>
     <t>This question applies to languages that have nominative/accusative alignment in clauses.
@@ -4752,13 +4542,6 @@
 The answer is YES if the internal argument of the noun bears the same case morphology (or the same special marking) as the internal argument of the verb, different from that found on the external argument.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no nominative/accusative alignment in clauses
-- The language has no special marking for the internal argument of the verb
-- The internal argument of the noun does not bear the same case morphology/special marking as the internal argument of the verb
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>To answer this question, look for the following evidence:
 (1) a nominal structure whose head noun is modified by an oblique argument;
 (2) a sentence where the verb is modified by the same type of oblique argument.
@@ -4770,64 +4553,6 @@
 For each example, provide an instance of a nominal argument where the noun is modified by an oblique argument, and an instance of a verb modified by an oblique complement that is introduced by the same morpheme as the complement of the noun.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no definiteness suffixes
-- Nouns/Adjectives bearing a definiteness suffix cannot be immediately followed by a possessive
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no definiteness suffixes
-- Nouns or adjectives bearing a definiteness suffix are not followed by a full genitive phrase whose determiner position hosts a Genitive-marked element
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitive arguments
-- The language has no systematic morpho-phonological affixation on head nouns depending on the presence of a non-adpositional genitive argument
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The language has no non-adpositional prenominal Genitives
-- The language has no non-adpositional postnominal Genitives
-- The language has no prenominal Adjectives
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The language has no non-adpositional prenominal Genitives
-- The language has no non-adpositional postnominal Genitives
-- Only one non-adpositional Genitive can be realized in prenominal position
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The language has no non-adpositional postnominal Genitives
-- The language has no postnominal adjectives
-- Only one non-adpositional Genitive is allowed in postnominal position
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The language has no prenominal non-adpositional Genitives
-- The language has no non-adpositional postnominal Genitives
-- Only one non-adpositional Genitive can be realized in prenominal position
-- The language has no prenominal Adjectives
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>SOTTO NO
-Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The language does not allow more than two occurrences of non-adpositional Genitives
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>Do not use a pronominal possessive to answer this question.</t>
   </si>
   <si>
@@ -4835,40 +4560,7 @@
 If your answer to ARR_Qb is YES, to answer the present question you must provide evidence of an adjective that follows a numeral in an indefinite nominal argument, and precedes a non-adpositional genitive functioning as an argument or alienable possessor of the noun.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The language has no non-adpositional Genitives functioning as arguments or alienable possessors of the noun
-- Adjectives do not precede non-adpositional Genitives
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>Do not use nominals with 'home' as a head noun to answer this question.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The language has no non-adpositional Genitives functioning as arguments or alienable possessors of the noun
-- The language has no non-adpositional Genitives following the head noun
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- Adjectives do not precede non-adpositional Genitives
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The language has no non-adpositional Genitives following the head noun
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The language has no prenominal Adjectives
-- Genitives realized as a visibly branching phrase headed by a common noun do not precede prenominal adjectives
-If you want to provide any example, do so in the Comments box.</t>
   </si>
   <si>
     <t>To answer this question, look for two nominal arguments headed by the following nouns:
@@ -4876,12 +4568,6 @@
 (2) one noun denoting an entity that is not inalienably possessed (e.g. dog, house, ...: 'I saw an ugly house/dog').
 The answer is YES if, when these nouns are realized without a visible possessor, a morpheme agreeing with the arbitrary possessor appear on the inalienably possessed noun but not on the other one.
 The answer is NO if the noun has the same morphological make up in both cases.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no non-adpositional Genitives
-- The language does not resort to an additional nominal head to license a second genitive argument
-If you want to provide any example, do so in the Comments box.</t>
   </si>
   <si>
     <t xml:space="preserve">Test this question with different types of cardinal expressions, for example:
@@ -4892,20 +4578,8 @@
 </t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- Cardinal expressions do not inflect for gender
-- The language exhibit no agreement in gender within nominal structures
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>Provide at least two examples of indefinite nominal arguments, with different nouns and cardinal expressions.
 For each noun, provide one instance where it is modified by a cardinal expression higher than 'two' and is marked plural, and one instance where it has singular interpretation and is marked differently (or unmarked).</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no Number morphology
-- The noun does not bear plural marking when occcurring with a cardinal
-If you want to provide any example, do so in the Comments box.</t>
   </si>
   <si>
     <t>To answer this question, look for a nominal structure where the cardinal expression modifies a noun, and provide two instances of it: 
@@ -4914,24 +4588,12 @@
 The answer is YES if the noun bears overt plural marking only when the definite determiner is overt.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no overt number morphology
-- The noun bears no overt plural marking when a definite determiner cooccurs with a non-compound cardinal numeral higher than ‘two’
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>To answer this question, look for a nominal structure where the cardinal expression modifies a noun, and provide two instances of it: 
 (1) one instance where the noun is interpreted as definite;
 (2) one instance where the noun is interpreted as non definite.
 The answer is YES if the noun bears overt plural marking only when it is interpreted as definite.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no overt number morphology
-- The noun bears no overt plural marking when modified by a non-compound cardinal numeral higher than ‘two’
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>Provide at least two examples, using different numerals.
 For each example, provide at least two instances, one where the numeral is realized as "personal", the other where it does not appear with any personal morpheme.</t>
   </si>
@@ -4948,84 +4610,10 @@
 For each example, provide two instances, one where the verb is found in a main clause whose subject is overt and marked as such, the other where the same verb is found in a relative clause whose subject is overt, is different from the noun heading the relative clause and is assigned a case that is different from the first example.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no morphological case distinctions
-- The language has no cases that are exclusively adnominal
-- Overt transitive subjects of relative clauses are assigned the same case as overt transitive subjects of main clauses
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- there is no definiteness marker on nouns
-- relative clauses headed by nouns marked as definite are not different from those headed by nouns not marked as definite 
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>Provide at least two instances of one and the same adposition/linker displaying morphological alternations controlled by phi-features of the head noun.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- the language has no adpositional Genitives/linkers
-- the morphological form of adpositions/linkers does not display any alternations controlled by phi-features of the head noun
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
     <t>To test this question, use nouns like: present/gift; letter; photo; trip.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no adpositions
-- adpositions follow their complements (i.e. are realized as postpositions)
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no adpositional Genitives
-- adpositional Genitives precede their complements
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no linkers
-- linkers follow their complements
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no linkers
-- linker prases precede their head nouns
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no adpositions
-- adpositions precede their complements (i.e. are realized as prepositions)
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no adpositional Genitives
-- adpositional Genitives follow their complements
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no articles
-- the article occurs as the last word and is preceded by some other overt element belonging to the nominal phrase
-- the article occurs affixed to the last word, and is preceded by some other overt element belonging to the nominal phrase
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- there are no positional alternations affecting cardinals/numerical adjectives and Genitives or possessives
-- positional alternations affecting cardinals/numerical adjectives and Genitives or possessives are not associated with different interpretations (e.g., definite vs. indefinite reading)
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no articles
-- the article occurs as the first word or affixed to the first word, and is followed by some other overt element belonging to the nominal phrase
-If you want to provide any example, do so in the Comments box.</t>
   </si>
   <si>
     <t>Do not use the cardinal for 'one' to test this question.
@@ -5044,48 +4632,14 @@
     <t>If you answered YES to NM1_Qa, write "same examples as NM1_Qa".</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- the language has no non-adpositional Genitives
-- the language has no non-adpositional prenominal Genitives
-- the language has no prenominal adjectives
-- non-adpositional Genitives never occurr between a structured adjective and a noun
-If you want to provide any example, do so in the Comments box.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no non-adpositional Genitives
-- the language has no postnominal adjectives
-- the language has no postnominal adjectives occurring to the left of non-adpositional Genitives
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- the language has no postnominal adjectives
-- the language has no adjectives alternating between the pre- and post-nominal position
-- there are no interpretive alternations between pre- and postnominal position
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Provide at least two examples of a definite nominal argument modified by an adjective, using different nouns/adjectives.
 For each example, provide two instances: one where the noun occurs with no modifiers and has a definiteness suffix, one where the same noun is modified by an adjective and has a definite suffix, and a non-suffixal article appears as well.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- the language has no definiteness suffixes
-- if a definite suffix occurs on the noun (or on any other modifier) no non-suffixal articles appear
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Provide at least two examples of a definite nominal argument, using different nouns.
 For each example, provide two instances: one where the noun occurs with no modifiers and has a definiteness suffix, one where the nominal argument has a demontrative at the boundary and the noun has a definite suffix.</t>
   </si>
   <si>
-    <t>Check one of the following boxes
-- the language has no definiteness suffixes
-- if a demonstrative appears at the boundary, no definite suffix is visible on the noun
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>To answer this question, use/adapt the evidence collected to answer the questions of parameter ARR. 
 If no questions for parameter ARR has a YES, the answer to this question is NO.</t>
   </si>
@@ -5093,12 +4647,6 @@
     <t>If you provided examples with definite nominal structures to answer the questions of parameter ARR, write "same examples as ARR".</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- the language has no adjectives realized as reduced relative clauses
-- no article appears before adjectives realized as reduced relative clauses in definite nominal arguments
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>If the language has multiple positions for adjectival modifiers, test this question with all possible positions.
 To answer YES, it is sufficient that the definite article is systematically replicated at least in one position.</t>
   </si>
@@ -5107,13 +4655,6 @@
 To answer YES, it is necessary for the definite article not to be duplicated on any adjectival position.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no prenominal cardinal numerals
-- The language has no definiteness suffixes
-- Definiteness suffixes are never found on cardinal numerals
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Test this question with various classes of proper names (e.g., names of individuals, cities, regions, islands, states, rivers, etc.).
 The answer is YES if at least one such class of names can appear without an article when used as an argument.</t>
   </si>
@@ -5129,22 +4670,7 @@
 This question can be tested only in languages where non-adpositional genitives do not occur to the left of the noun and after adjectives: if your answer to NGL_Qa is YES, then your answer to the present question must be NO.</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has non-adpositional genitives occurring between an adjective/numeral and the noun
-- The language has no non-adpositional genitives
-- The language has no prenominal adjectives/numerals
-- Possessives are never realized after a prenominal adjectives
-- Possessives can be realized after a prenominal adjective, but are not uninflected
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>This question can be tested only in languages with linkers: if your answers to LKO_Qa and LKP_Qa are both NO, then your answer to the present question must be NO as well.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes
-- The language has no linkers
-- Possessives are never realized as clitics directly attached to the noun
-If you want to provide any example, do so in the Comments box</t>
   </si>
   <si>
     <t>This question can be tested only in languages where adjectives can be postnominal. If your language has no postnominal adjectives, the answer to the present question is NO.
@@ -5152,12 +4678,6 @@
   </si>
   <si>
     <t>Provide at least two examples, using different nouns and adjectives. For each example, provide one instance where the head noun is modified by a postnominal adjective and one instance where the same head noun, in the same context, is modified by a possessive occurring in the same postnominal position as the adjective.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no postnominal adjectives
-- The language has no postnominal possessives occurringwith the same distribution as postnominal adjectives
-If you want to provide any example, do so in the Comments box</t>
   </si>
   <si>
     <t>This question can be tested only in languages where adjectives can be prenominal as a general rule. If your language has no prenominal adjectives (i.e., if your answer to NM1_Qa is NO), the answer to the present question is NO.
@@ -5168,12 +4688,6 @@
     <t>Provide at least two examples, using different nouns and adjectives. For each example, provide one instance where the head noun is modified by a numeral followed by a prenominal adjective and one instance where the same head noun, in the same context, is modified by a possessive occurring in the same position as the adjective (i.e., after the numeral and before the noun).</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- The language has no prenominal adjectives
-- The language has no prenominal possessives occurring with the same distribution as prenominal adjectives
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>Test this question with argument adjectives from personal proper names and common nouns.</t>
   </si>
   <si>
@@ -5198,12 +4712,6 @@
   <si>
     <t>Provide at least two examples, using different nouns. 
 For each example, provide one instance where the head noun is modified by a postnominal adjective and one where the same head noun, in the same context, is modified by a demonstrative occurring in the same position as the adjective.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no postnominal adjectives
-- The language has no postnominal demonstratives occurring with the same distribution as postnominal adjectives
-If you want to provide any example, do so in the Comments box</t>
   </si>
   <si>
     <t>This question can be tested only in languages where adjectives can be fronted to the left of determiners/numerals. If adjectives cannot be fronted in your language, the answer to the present question is NO.</t>
@@ -5216,67 +4724,7 @@
 (4) the demonstrative is fronted to the same position as the adjective in (2).</t>
   </si>
   <si>
-    <t>Check one of the following boxes:
-- Adjectives cannot be fronted
-- Demonstratives cannot occur in the same position as fronted adjectives
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- The language has no definiteness affixes
-- Demonstratives are not found after a noun bearing a definiteness affix
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- Demonstratives are split
-- Demonstratives and adjectives cannot be freely ordered
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
     <t>This question does not apply to split Demonstratives: the answer is NO if you answered YES to TSP_Qa or TSP_Qb.</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- Demonstratives are split
-- Demonstratives and adpositional genitives cannot be freely ordered
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- Demonstratives are split
-- Demonstratives and relative clauses cannot be freely ordered
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- Demonstratives are split
-- Demonstratives and the numeral 'one' cannot be freely ordered
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- Demonstratives are split
-- Demonstratives and numerals cannot be freely ordered
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- Demonstratives are split
-- Demonstratives and PPs cannot be freely ordered
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- Demonstratives are split
-- The language has no determinerless nominal arguments headed by a singular count noun
-If you want to provide any example, do so in the Comments box</t>
-  </si>
-  <si>
-    <t>Check one of the following boxes:
-- Demonstratives do not cooccur with articles
-- No copy of the definite article introducing the noun occurs on demonstratives
-If you want to provide any example, do so in the Comments box</t>
   </si>
   <si>
     <t>This question does not apply to adjectival demonstratives: if your answer to TSA_Qb is YES, the answer to the present question must be NO.
@@ -5557,6 +5005,33 @@
   </si>
   <si>
     <t>FGN_Qc</t>
+  </si>
+  <si>
+    <t>Check one of the following boxes. If you want to provide any example, do so in the Comments box</t>
+  </si>
+  <si>
+    <t>Provide an example with no overt expletive (e.g. Italian 'È estate')</t>
+  </si>
+  <si>
+    <t>Check one of the following boxes.
+If you want to provide any relevant example, do so in the Comments box</t>
+  </si>
+  <si>
+    <t>Check one of the following boxes. If you want to provide any relevant example, do so in the Comments box</t>
+  </si>
+  <si>
+    <t>Check one the following boxes. If you want to provide any example, do so in the Comments box</t>
+  </si>
+  <si>
+    <t>Check one of the following boxes. If you want to provide any example, do so in the Comments box.</t>
+  </si>
+  <si>
+    <t>Check one of the following boxes.
+If you want to provide any example, do so in the Comments box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Check one of the following boxes. If you want to provide any example, do so in the Comments box.</t>
   </si>
 </sst>
 </file>
@@ -6005,16 +5480,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7F8A9-63CE-4FE3-9607-7AA57A6C5082}">
   <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="82.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="29" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="1" bestFit="1" customWidth="1"/>
@@ -6038,7 +5514,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1040</v>
+        <v>954</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>613</v>
@@ -6127,7 +5603,7 @@
         <v>846</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>847</v>
+        <v>981</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -6147,7 +5623,7 @@
         <v>621</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -6167,7 +5643,7 @@
         <v>622</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -6190,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -6204,10 +5680,10 @@
         <v>826</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>851</v>
+        <v>981</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -6227,7 +5703,7 @@
         <v>827</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -6247,7 +5723,7 @@
         <v>828</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -6284,10 +5760,10 @@
         <v>624</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>855</v>
+        <v>982</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -6324,13 +5800,13 @@
         <v>626</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -6344,19 +5820,19 @@
         <v>829</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>859</v>
+        <v>983</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -6370,13 +5846,13 @@
         <v>627</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>862</v>
+        <v>981</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -6413,7 +5889,7 @@
         <v>789</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -6433,10 +5909,10 @@
         <v>629</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -6456,7 +5932,7 @@
         <v>790</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -6527,7 +6003,7 @@
         <v>832</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -6535,7 +6011,7 @@
     </row>
     <row r="26" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1065</v>
+        <v>979</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>104</v>
@@ -6547,7 +6023,7 @@
         <v>633</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -6555,7 +6031,7 @@
     </row>
     <row r="27" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1066</v>
+        <v>980</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>104</v>
@@ -6567,7 +6043,7 @@
         <v>791</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -6607,7 +6083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -6621,7 +6097,7 @@
         <v>636</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>870</v>
+        <v>983</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -6644,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -6658,7 +6134,7 @@
         <v>833</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>871</v>
+        <v>984</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -6695,7 +6171,7 @@
         <v>832</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -6715,7 +6191,7 @@
         <v>638</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -6769,7 +6245,7 @@
         <v>640</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -6857,7 +6333,7 @@
         <v>644</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -6914,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -6928,13 +6404,13 @@
         <v>648</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>876</v>
+        <v>981</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="288" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -6948,10 +6424,10 @@
         <v>649</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>878</v>
+        <v>981</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -7005,7 +6481,7 @@
         <v>793</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
@@ -7025,7 +6501,7 @@
         <v>794</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -7045,7 +6521,7 @@
         <v>795</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -7065,7 +6541,7 @@
         <v>796</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -7139,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
@@ -7153,13 +6629,13 @@
         <v>655</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>883</v>
+        <v>981</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="304" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>49</v>
       </c>
@@ -7173,16 +6649,16 @@
         <v>656</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>885</v>
+        <v>981</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
@@ -7196,16 +6672,16 @@
         <v>657</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>887</v>
+        <v>981</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>51</v>
       </c>
@@ -7219,7 +6695,7 @@
         <v>658</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>888</v>
+        <v>981</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -7239,13 +6715,13 @@
         <v>659</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>891</v>
+        <v>981</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -7265,10 +6741,10 @@
         <v>660</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1033</v>
+        <v>947</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>892</v>
+        <v>981</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
@@ -7291,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>54</v>
       </c>
@@ -7305,16 +6781,16 @@
         <v>662</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1034</v>
+        <v>948</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>893</v>
+        <v>981</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
@@ -7328,19 +6804,19 @@
         <v>663</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>896</v>
+        <v>981</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
@@ -7354,13 +6830,13 @@
         <v>664</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>899</v>
+        <v>981</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
@@ -7380,16 +6856,16 @@
         <v>665</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>901</v>
+        <v>981</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="320" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>58</v>
       </c>
@@ -7403,13 +6879,13 @@
         <v>666</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>902</v>
+        <v>985</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="395" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>59</v>
       </c>
@@ -7423,13 +6899,13 @@
         <v>667</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>903</v>
+        <v>985</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="240" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>60</v>
       </c>
@@ -7443,16 +6919,16 @@
         <v>668</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>905</v>
+        <v>985</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>532</v>
       </c>
@@ -7466,13 +6942,13 @@
         <v>669</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>906</v>
+        <v>985</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="240" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>61</v>
       </c>
@@ -7486,10 +6962,10 @@
         <v>798</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>907</v>
+        <v>884</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>908</v>
+        <v>981</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -7509,13 +6985,13 @@
         <v>670</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>909</v>
+        <v>885</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>62</v>
       </c>
@@ -7529,16 +7005,16 @@
         <v>836</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>910</v>
+        <v>886</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>911</v>
+        <v>981</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>63</v>
       </c>
@@ -7552,16 +7028,16 @@
         <v>671</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>911</v>
+        <v>981</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>64</v>
       </c>
@@ -7575,13 +7051,13 @@
         <v>672</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>913</v>
+        <v>981</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="350" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>65</v>
       </c>
@@ -7595,13 +7071,13 @@
         <v>673</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>913</v>
+        <v>981</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>66</v>
       </c>
@@ -7615,7 +7091,7 @@
         <v>674</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>913</v>
+        <v>981</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -7635,7 +7111,7 @@
         <v>837</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>914</v>
+        <v>888</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -7689,13 +7165,13 @@
         <v>614</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>915</v>
+        <v>889</v>
       </c>
       <c r="I84" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>69</v>
       </c>
@@ -7709,10 +7185,10 @@
         <v>677</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>916</v>
+        <v>890</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>917</v>
+        <v>981</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
@@ -7749,7 +7225,7 @@
         <v>679</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>918</v>
+        <v>891</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
@@ -7769,7 +7245,7 @@
         <v>799</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>918</v>
+        <v>891</v>
       </c>
       <c r="I88" s="1">
         <v>1</v>
@@ -7840,13 +7316,13 @@
         <v>681</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
       <c r="I92" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>74</v>
       </c>
@@ -7860,13 +7336,13 @@
         <v>682</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>920</v>
+        <v>986</v>
       </c>
       <c r="I93" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>75</v>
       </c>
@@ -7880,13 +7356,13 @@
         <v>683</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>921</v>
+        <v>986</v>
       </c>
       <c r="I94" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>76</v>
       </c>
@@ -7900,10 +7376,10 @@
         <v>684</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>922</v>
+        <v>893</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>923</v>
+        <v>986</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
@@ -7926,7 +7402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>77</v>
       </c>
@@ -7940,10 +7416,10 @@
         <v>686</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>924</v>
+        <v>894</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>925</v>
+        <v>986</v>
       </c>
       <c r="I97" s="1">
         <v>0</v>
@@ -7966,7 +7442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>78</v>
       </c>
@@ -7980,10 +7456,10 @@
         <v>688</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>926</v>
+        <v>895</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>927</v>
+        <v>986</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -8006,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="240" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="350" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>79</v>
       </c>
@@ -8020,10 +7496,10 @@
         <v>689</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>928</v>
+        <v>896</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>929</v>
+        <v>986</v>
       </c>
       <c r="I101" s="1">
         <v>0</v>
@@ -8111,10 +7587,10 @@
         <v>803</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>931</v>
+        <v>986</v>
       </c>
       <c r="I106" s="1">
         <v>0</v>
@@ -8168,7 +7644,7 @@
         <v>804</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>932</v>
+        <v>898</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
@@ -8188,7 +7664,7 @@
         <v>694</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>933</v>
+        <v>899</v>
       </c>
       <c r="I110" s="1">
         <v>1</v>
@@ -8245,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>88</v>
       </c>
@@ -8259,13 +7735,13 @@
         <v>698</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>934</v>
+        <v>986</v>
       </c>
       <c r="I114" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>89</v>
       </c>
@@ -8279,13 +7755,13 @@
         <v>699</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>935</v>
+        <v>986</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>90</v>
       </c>
@@ -8299,13 +7775,13 @@
         <v>838</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>936</v>
+        <v>986</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>91</v>
       </c>
@@ -8319,13 +7795,13 @@
         <v>805</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>937</v>
+        <v>986</v>
       </c>
       <c r="I117" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="365" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>92</v>
       </c>
@@ -8339,13 +7815,13 @@
         <v>700</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>938</v>
+        <v>986</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="350" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>93</v>
       </c>
@@ -8359,7 +7835,7 @@
         <v>701</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>939</v>
+        <v>987</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -8379,13 +7855,13 @@
         <v>806</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>940</v>
+        <v>986</v>
       </c>
       <c r="I120" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>95</v>
       </c>
@@ -8399,7 +7875,7 @@
         <v>807</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>941</v>
+        <v>988</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
@@ -8436,7 +7912,7 @@
         <v>702</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>942</v>
+        <v>900</v>
       </c>
       <c r="I123" s="1">
         <v>1</v>
@@ -8459,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="240" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>97</v>
       </c>
@@ -8473,16 +7949,16 @@
         <v>703</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>943</v>
+        <v>901</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>944</v>
+        <v>986</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>98</v>
       </c>
@@ -8496,16 +7972,16 @@
         <v>704</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>945</v>
+        <v>902</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>946</v>
+        <v>986</v>
       </c>
       <c r="I126" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="395" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>99</v>
       </c>
@@ -8519,16 +7995,16 @@
         <v>705</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1035</v>
+        <v>949</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>947</v>
+        <v>986</v>
       </c>
       <c r="I127" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="304" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>100</v>
       </c>
@@ -8542,13 +8018,13 @@
         <v>706</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>948</v>
+        <v>986</v>
       </c>
       <c r="I128" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>263</v>
       </c>
@@ -8562,7 +8038,7 @@
         <v>707</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>949</v>
+        <v>986</v>
       </c>
       <c r="I129" s="1">
         <v>0</v>
@@ -8633,7 +8109,7 @@
         <v>808</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>950</v>
+        <v>903</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
@@ -8670,7 +8146,7 @@
         <v>712</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1036</v>
+        <v>950</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
@@ -8693,7 +8169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="350" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>266</v>
       </c>
@@ -8707,7 +8183,7 @@
         <v>809</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>951</v>
+        <v>986</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
@@ -8747,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="288" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>268</v>
       </c>
@@ -8761,10 +8237,10 @@
         <v>810</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>952</v>
+        <v>904</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>953</v>
+        <v>986</v>
       </c>
       <c r="I140" s="1">
         <v>0</v>
@@ -8818,10 +8294,10 @@
         <v>717</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>954</v>
+        <v>905</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>955</v>
+        <v>986</v>
       </c>
       <c r="I143" s="1">
         <v>0</v>
@@ -8858,16 +8334,16 @@
         <v>812</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>956</v>
+        <v>906</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="I145" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>271</v>
       </c>
@@ -8881,10 +8357,10 @@
         <v>813</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>958</v>
+        <v>907</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>959</v>
+        <v>986</v>
       </c>
       <c r="I146" s="1">
         <v>0</v>
@@ -8924,7 +8400,7 @@
         <v>845</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>960</v>
+        <v>908</v>
       </c>
       <c r="I148" s="1">
         <v>0</v>
@@ -8964,7 +8440,7 @@
         <v>845</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>961</v>
+        <v>909</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
@@ -9001,7 +8477,7 @@
         <v>723</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>962</v>
+        <v>910</v>
       </c>
       <c r="I152" s="1">
         <v>0</v>
@@ -9024,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>276</v>
       </c>
@@ -9038,16 +8514,16 @@
         <v>840</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>963</v>
+        <v>911</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>964</v>
+        <v>986</v>
       </c>
       <c r="I154" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="350" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>277</v>
       </c>
@@ -9061,10 +8537,10 @@
         <v>725</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1037</v>
+        <v>951</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>965</v>
+        <v>986</v>
       </c>
       <c r="I155" s="1">
         <v>0</v>
@@ -9087,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="350" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>278</v>
       </c>
@@ -9101,10 +8577,10 @@
         <v>841</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>966</v>
+        <v>912</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>967</v>
+        <v>986</v>
       </c>
       <c r="I157" s="1">
         <v>0</v>
@@ -9141,7 +8617,7 @@
         <v>814</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>968</v>
+        <v>913</v>
       </c>
       <c r="I159" s="1">
         <v>0</v>
@@ -9161,13 +8637,13 @@
         <v>815</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>968</v>
+        <v>913</v>
       </c>
       <c r="I160" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>280</v>
       </c>
@@ -9181,13 +8657,13 @@
         <v>728</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>969</v>
+        <v>986</v>
       </c>
       <c r="I161" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>281</v>
       </c>
@@ -9201,13 +8677,13 @@
         <v>729</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>970</v>
+        <v>986</v>
       </c>
       <c r="I162" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>282</v>
       </c>
@@ -9221,13 +8697,13 @@
         <v>730</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>971</v>
+        <v>986</v>
       </c>
       <c r="I163" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>283</v>
       </c>
@@ -9241,13 +8717,13 @@
         <v>730</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>972</v>
+        <v>986</v>
       </c>
       <c r="I164" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="350" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>561</v>
       </c>
@@ -9261,13 +8737,13 @@
         <v>731</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
       <c r="I165" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>562</v>
       </c>
@@ -9281,13 +8757,13 @@
         <v>732</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="I166" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>284</v>
       </c>
@@ -9301,13 +8777,13 @@
         <v>733</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
       <c r="I167" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>285</v>
       </c>
@@ -9321,13 +8797,13 @@
         <v>734</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>571</v>
       </c>
@@ -9341,7 +8817,7 @@
         <v>816</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>977</v>
+        <v>986</v>
       </c>
       <c r="I169" s="1">
         <v>1</v>
@@ -9381,7 +8857,7 @@
         <v>735</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>978</v>
+        <v>914</v>
       </c>
       <c r="I171" s="1">
         <v>0</v>
@@ -9401,7 +8877,7 @@
         <v>736</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>978</v>
+        <v>914</v>
       </c>
       <c r="I172" s="1">
         <v>1</v>
@@ -9421,7 +8897,7 @@
         <v>737</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>979</v>
+        <v>915</v>
       </c>
       <c r="I173" s="1">
         <v>0</v>
@@ -9458,7 +8934,7 @@
         <v>739</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>980</v>
+        <v>916</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -9478,7 +8954,7 @@
         <v>740</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>981</v>
+        <v>917</v>
       </c>
       <c r="I176" s="1">
         <v>1</v>
@@ -9498,7 +8974,7 @@
         <v>741</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>982</v>
+        <v>918</v>
       </c>
       <c r="I177" s="1">
         <v>0</v>
@@ -9535,7 +9011,7 @@
         <v>740</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>981</v>
+        <v>917</v>
       </c>
       <c r="I179" s="1">
         <v>1</v>
@@ -9572,7 +9048,7 @@
         <v>740</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>981</v>
+        <v>917</v>
       </c>
       <c r="I181" s="1">
         <v>1</v>
@@ -9592,13 +9068,13 @@
         <v>616</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>981</v>
+        <v>917</v>
       </c>
       <c r="I182" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>293</v>
       </c>
@@ -9612,13 +9088,13 @@
         <v>744</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="I183" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>294</v>
       </c>
@@ -9635,13 +9111,13 @@
         <v>845</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I184" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="288" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>295</v>
       </c>
@@ -9655,7 +9131,7 @@
         <v>746</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="I185" s="1">
         <v>0</v>
@@ -9675,16 +9151,16 @@
         <v>747</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>986</v>
+        <v>919</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="I186" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>297</v>
       </c>
@@ -9698,10 +9174,10 @@
         <v>817</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>988</v>
+        <v>920</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="I187" s="1">
         <v>0</v>
@@ -9741,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="320" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>298</v>
       </c>
@@ -9755,13 +9231,13 @@
         <v>750</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>990</v>
+        <v>921</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>991</v>
+        <v>922</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
@@ -9798,7 +9274,7 @@
         <v>751</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>993</v>
+        <v>923</v>
       </c>
       <c r="I192" s="1">
         <v>0</v>
@@ -9818,13 +9294,13 @@
         <v>752</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>994</v>
+        <v>924</v>
       </c>
       <c r="I193" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>300</v>
       </c>
@@ -9838,7 +9314,7 @@
         <v>753</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="I194" s="1">
         <v>0</v>
@@ -9858,7 +9334,7 @@
         <v>754</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>996</v>
+        <v>925</v>
       </c>
       <c r="I195" s="1">
         <v>0</v>
@@ -9895,7 +9371,7 @@
         <v>756</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>997</v>
+        <v>926</v>
       </c>
       <c r="I197" s="1">
         <v>0</v>
@@ -9966,7 +9442,7 @@
         <v>760</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>998</v>
+        <v>927</v>
       </c>
       <c r="I201" s="1">
         <v>0</v>
@@ -10023,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="240" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>307</v>
       </c>
@@ -10037,16 +9513,16 @@
         <v>763</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>999</v>
+        <v>928</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>1000</v>
+        <v>981</v>
       </c>
       <c r="I205" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>308</v>
       </c>
@@ -10060,16 +9536,16 @@
         <v>764</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1001</v>
+        <v>929</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="I206" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="350" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>309</v>
       </c>
@@ -10083,19 +9559,19 @@
         <v>765</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1003</v>
+        <v>930</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1004</v>
+        <v>931</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>1005</v>
+        <v>981</v>
       </c>
       <c r="I207" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>310</v>
       </c>
@@ -10109,13 +9585,13 @@
         <v>766</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1006</v>
+        <v>932</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1007</v>
+        <v>933</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>1008</v>
+        <v>981</v>
       </c>
       <c r="I208" s="1">
         <v>0</v>
@@ -10169,7 +9645,7 @@
         <v>769</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1009</v>
+        <v>934</v>
       </c>
       <c r="I211" s="1">
         <v>0</v>
@@ -10189,7 +9665,7 @@
         <v>770</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1009</v>
+        <v>934</v>
       </c>
       <c r="I212" s="1">
         <v>0</v>
@@ -10209,7 +9685,7 @@
         <v>771</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1010</v>
+        <v>935</v>
       </c>
       <c r="I213" s="1">
         <v>0</v>
@@ -10229,10 +9705,10 @@
         <v>820</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1011</v>
+        <v>936</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1012</v>
+        <v>937</v>
       </c>
       <c r="I214" s="1">
         <v>0</v>
@@ -10252,7 +9728,7 @@
         <v>772</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1013</v>
+        <v>938</v>
       </c>
       <c r="I215" s="1">
         <v>0</v>
@@ -10272,7 +9748,7 @@
         <v>821</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1014</v>
+        <v>939</v>
       </c>
       <c r="I216" s="1">
         <v>0</v>
@@ -10326,7 +9802,7 @@
         <v>823</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1014</v>
+        <v>939</v>
       </c>
       <c r="I219" s="1">
         <v>0</v>
@@ -10383,7 +9859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>320</v>
       </c>
@@ -10397,13 +9873,13 @@
         <v>776</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1015</v>
+        <v>940</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1016</v>
+        <v>941</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1017</v>
+        <v>981</v>
       </c>
       <c r="I223" s="1">
         <v>0</v>
@@ -10423,19 +9899,19 @@
         <v>824</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1018</v>
+        <v>942</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1019</v>
+        <v>943</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>1020</v>
+        <v>981</v>
       </c>
       <c r="I224" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>322</v>
       </c>
@@ -10449,13 +9925,13 @@
         <v>777</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>1021</v>
+        <v>981</v>
       </c>
       <c r="I225" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>323</v>
       </c>
@@ -10469,16 +9945,16 @@
         <v>842</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1038</v>
+        <v>952</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>1022</v>
+        <v>981</v>
       </c>
       <c r="I226" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>324</v>
       </c>
@@ -10492,16 +9968,16 @@
         <v>842</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1023</v>
+        <v>944</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>1024</v>
+        <v>981</v>
       </c>
       <c r="I227" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>325</v>
       </c>
@@ -10515,16 +9991,16 @@
         <v>778</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1038</v>
+        <v>952</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1025</v>
+        <v>981</v>
       </c>
       <c r="I228" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>326</v>
       </c>
@@ -10538,16 +10014,16 @@
         <v>779</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1023</v>
+        <v>944</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1026</v>
+        <v>981</v>
       </c>
       <c r="I229" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="304" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>327</v>
       </c>
@@ -10561,16 +10037,16 @@
         <v>780</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1038</v>
+        <v>952</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1027</v>
+        <v>981</v>
       </c>
       <c r="I230" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="240" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>328</v>
       </c>
@@ -10584,10 +10060,10 @@
         <v>781</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1023</v>
+        <v>944</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1028</v>
+        <v>981</v>
       </c>
       <c r="I231" s="1">
         <v>0</v>
@@ -10627,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>331</v>
       </c>
@@ -10641,16 +10117,16 @@
         <v>784</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1039</v>
+        <v>953</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>1029</v>
+        <v>981</v>
       </c>
       <c r="I234" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>332</v>
       </c>
@@ -10667,7 +10143,7 @@
         <v>845</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>1030</v>
+        <v>981</v>
       </c>
       <c r="I235" s="1">
         <v>0</v>
@@ -10704,7 +10180,7 @@
         <v>787</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1031</v>
+        <v>945</v>
       </c>
       <c r="I237" s="1">
         <v>0</v>
@@ -10724,7 +10200,7 @@
         <v>788</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1032</v>
+        <v>946</v>
       </c>
       <c r="I238" s="1">
         <v>1</v>
@@ -10741,10 +10217,10 @@
         <v>175</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1041</v>
+        <v>955</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1058</v>
+        <v>972</v>
       </c>
       <c r="I239" s="1">
         <v>0</v>
@@ -10761,7 +10237,7 @@
         <v>501</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>1042</v>
+        <v>956</v>
       </c>
       <c r="I240" s="1">
         <v>0</v>
@@ -10778,7 +10254,7 @@
         <v>502</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>1043</v>
+        <v>957</v>
       </c>
       <c r="I241" s="1">
         <v>0</v>
@@ -10795,10 +10271,10 @@
         <v>503</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1053</v>
+        <v>967</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1059</v>
+        <v>973</v>
       </c>
       <c r="I242" s="1">
         <v>0</v>
@@ -10815,10 +10291,10 @@
         <v>504</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1044</v>
+        <v>958</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1064</v>
+        <v>978</v>
       </c>
       <c r="I243" s="1">
         <v>0</v>
@@ -10835,10 +10311,10 @@
         <v>505</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1045</v>
+        <v>959</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1064</v>
+        <v>978</v>
       </c>
       <c r="I244" s="1">
         <v>0</v>
@@ -10855,10 +10331,10 @@
         <v>506</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1046</v>
+        <v>960</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1060</v>
+        <v>974</v>
       </c>
       <c r="I245" s="1">
         <v>0</v>
@@ -10875,7 +10351,7 @@
         <v>507</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1047</v>
+        <v>961</v>
       </c>
       <c r="I246" s="1">
         <v>0</v>
@@ -10892,7 +10368,7 @@
         <v>612</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1054</v>
+        <v>968</v>
       </c>
       <c r="I247" s="1">
         <v>0</v>
@@ -10909,7 +10385,7 @@
         <v>508</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1048</v>
+        <v>962</v>
       </c>
       <c r="I248" s="1">
         <v>0</v>
@@ -10926,7 +10402,7 @@
         <v>509</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1049</v>
+        <v>963</v>
       </c>
       <c r="I249" s="1">
         <v>0</v>
@@ -10943,10 +10419,10 @@
         <v>510</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1055</v>
+        <v>969</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1061</v>
+        <v>975</v>
       </c>
       <c r="I250" s="1">
         <v>0</v>
@@ -10963,7 +10439,7 @@
         <v>511</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>1056</v>
+        <v>970</v>
       </c>
       <c r="I251" s="1">
         <v>0</v>
@@ -10980,7 +10456,7 @@
         <v>512</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1057</v>
+        <v>971</v>
       </c>
       <c r="I252" s="1">
         <v>0</v>
@@ -10997,7 +10473,7 @@
         <v>513</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1050</v>
+        <v>964</v>
       </c>
       <c r="I253" s="1">
         <v>0</v>
@@ -11014,10 +10490,10 @@
         <v>514</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>1051</v>
+        <v>965</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1062</v>
+        <v>976</v>
       </c>
       <c r="I254" s="1">
         <v>0</v>
@@ -11034,10 +10510,10 @@
         <v>515</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>1052</v>
+        <v>966</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1063</v>
+        <v>977</v>
       </c>
       <c r="I255" s="1">
         <v>0</v>

--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/POM Unimore/Database PCM_Hub/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA08B1D2-9D85-8E4B-91BE-CD666E060022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5832196-DBD9-A841-BC62-3157809F3166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="23340" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="991">
   <si>
     <t>id</t>
   </si>
@@ -5032,6 +5032,12 @@
   <si>
     <t xml:space="preserve">
 Check one of the following boxes. If you want to provide any example, do so in the Comments box.</t>
+  </si>
+  <si>
+    <t>DSN_QSa</t>
+  </si>
+  <si>
+    <t>DSN_QSb</t>
   </si>
 </sst>
 </file>
@@ -5480,9 +5486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7F8A9-63CE-4FE3-9607-7AA57A6C5082}">
   <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A235" sqref="A235"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5526,7 +5532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5546,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5566,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="304" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="365" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -5609,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -5629,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -5649,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="365" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>516</v>
       </c>
@@ -5666,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5689,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>517</v>
       </c>
@@ -5709,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -5729,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="288" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -5769,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -5806,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="320" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -5875,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -5895,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -5918,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="335" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>518</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="304" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -5972,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>831</v>
       </c>
@@ -5989,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="395" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>830</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="380" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>979</v>
       </c>
@@ -6029,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>980</v>
       </c>
@@ -6049,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>519</v>
       </c>
@@ -6103,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>520</v>
       </c>
@@ -6140,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>521</v>
       </c>
@@ -6157,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="395" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -6177,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -6197,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="395" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>522</v>
       </c>
@@ -6214,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="304" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -6231,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -6251,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>523</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -6285,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>524</v>
       </c>
@@ -6302,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="304" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="335" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
@@ -6339,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>525</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="304" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
@@ -6373,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>526</v>
       </c>
@@ -6433,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
@@ -6450,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>527</v>
       </c>
@@ -6487,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>44</v>
       </c>
@@ -6527,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -6547,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>528</v>
       </c>
@@ -6564,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="335" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>529</v>
       </c>
@@ -6598,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>530</v>
       </c>
@@ -6750,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>531</v>
       </c>
@@ -6971,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="320" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>533</v>
       </c>
@@ -7097,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>67</v>
       </c>
@@ -7117,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>534</v>
       </c>
@@ -7134,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>68</v>
       </c>
@@ -7151,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>535</v>
       </c>
@@ -7194,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>536</v>
       </c>
@@ -7211,7 +7217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>70</v>
       </c>
@@ -7231,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="304" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>537</v>
       </c>
@@ -7251,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>71</v>
       </c>
@@ -7268,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>538</v>
       </c>
@@ -7285,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>72</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="365" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>539</v>
       </c>
@@ -7425,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>540</v>
       </c>
@@ -7465,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>541</v>
       </c>
@@ -7505,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>542</v>
       </c>
@@ -7539,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>81</v>
       </c>
@@ -7556,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>82</v>
       </c>
@@ -7596,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>84</v>
       </c>
@@ -7613,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>543</v>
       </c>
@@ -7670,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="380" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>86</v>
       </c>
@@ -7687,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>87</v>
       </c>
@@ -7704,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>545</v>
       </c>
@@ -7881,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>546</v>
       </c>
@@ -7898,7 +7904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>547</v>
       </c>
@@ -7918,7 +7924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>96</v>
       </c>
@@ -8044,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>548</v>
       </c>
@@ -8061,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>549</v>
       </c>
@@ -8078,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>550</v>
       </c>
@@ -8115,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>551</v>
       </c>
@@ -8132,7 +8138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="350" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>265</v>
       </c>
@@ -8152,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="335" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>552</v>
       </c>
@@ -8189,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>553</v>
       </c>
@@ -8206,7 +8212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="288" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>267</v>
       </c>
@@ -8303,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="335" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>556</v>
       </c>
@@ -8366,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="335" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>569</v>
       </c>
@@ -8383,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="335" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>272</v>
       </c>
@@ -8406,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>557</v>
       </c>
@@ -8446,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="320" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>558</v>
       </c>
@@ -8483,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="335" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>275</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>559</v>
       </c>
@@ -8586,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>560</v>
       </c>
@@ -8603,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="380" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>279</v>
       </c>
@@ -8623,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="350" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>570</v>
       </c>
@@ -8823,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>572</v>
       </c>
@@ -8863,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="304" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>573</v>
       </c>
@@ -8883,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="380" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>287</v>
       </c>
@@ -8903,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>288</v>
       </c>
@@ -8920,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>289</v>
       </c>
@@ -8940,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>574</v>
       </c>
@@ -8960,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>290</v>
       </c>
@@ -8980,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>291</v>
       </c>
@@ -8997,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>575</v>
       </c>
@@ -9017,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>292</v>
       </c>
@@ -9034,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>576</v>
       </c>
@@ -9054,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>577</v>
       </c>
@@ -9183,9 +9189,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>296</v>
+        <v>989</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>375</v>
@@ -9197,12 +9203,12 @@
         <v>748</v>
       </c>
       <c r="I188" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="240" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="335" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>297</v>
+        <v>990</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>375</v>
@@ -9214,7 +9220,7 @@
         <v>749</v>
       </c>
       <c r="I189" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
@@ -9243,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>563</v>
       </c>
@@ -9260,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="320" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>299</v>
       </c>
@@ -9280,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>578</v>
       </c>
@@ -9320,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>301</v>
       </c>
@@ -9340,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="380" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>579</v>
       </c>
@@ -9357,7 +9363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>302</v>
       </c>
@@ -9377,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>580</v>
       </c>
@@ -9394,7 +9400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>303</v>
       </c>
@@ -9411,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>581</v>
       </c>
@@ -9428,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>304</v>
       </c>
@@ -9448,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>305</v>
       </c>
@@ -9465,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>306</v>
       </c>
@@ -9482,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>582</v>
       </c>
@@ -9597,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>311</v>
       </c>
@@ -9614,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>583</v>
       </c>
@@ -9631,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>312</v>
       </c>
@@ -9651,7 +9657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>313</v>
       </c>
@@ -9671,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>314</v>
       </c>
@@ -9691,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>315</v>
       </c>
@@ -9714,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="240" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="335" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>316</v>
       </c>
@@ -9734,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>317</v>
       </c>
@@ -9754,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>564</v>
       </c>
@@ -9771,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>565</v>
       </c>
@@ -9788,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>318</v>
       </c>
@@ -9808,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>566</v>
       </c>
@@ -9825,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="335" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>319</v>
       </c>
@@ -9842,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>567</v>
       </c>
@@ -10069,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>329</v>
       </c>
@@ -10086,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>330</v>
       </c>
@@ -10149,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="335" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>568</v>
       </c>
@@ -10186,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="380" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>584</v>
       </c>
@@ -10206,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>334</v>
       </c>
@@ -10226,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>335</v>
       </c>
@@ -10243,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>336</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="195" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>338</v>
       </c>
@@ -10300,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="195" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>339</v>
       </c>
@@ -10320,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="195" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>340</v>
       </c>
@@ -10340,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="180" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>341</v>
       </c>
@@ -10357,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="270" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>342</v>
       </c>
@@ -10374,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>343</v>
       </c>
@@ -10391,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="135" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>344</v>
       </c>
@@ -10428,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="300" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>346</v>
       </c>
@@ -10445,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="135" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>347</v>
       </c>
@@ -10462,7 +10468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>348</v>
       </c>
